--- a/Diagnostico_EB/Propuestas_Formatos/Propuesta_Diag_EB_AdriDaf.xlsx
+++ b/Diagnostico_EB/Propuestas_Formatos/Propuesta_Diag_EB_AdriDaf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ingreso" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +555,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -774,12 +786,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -795,15 +801,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -857,33 +854,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,18 +946,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -999,12 +957,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1067,6 +1019,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1484,1265 +1505,1265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="97"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="42" t="s">
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44" t="s">
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="46"/>
-      <c r="M3" s="89" t="s">
+      <c r="L3" s="103"/>
+      <c r="M3" s="71" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="105"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="25">
         <v>116246</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="38">
         <v>44</v>
       </c>
-      <c r="E5" s="109">
+      <c r="E5" s="89">
         <v>5</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="20">
         <v>2</v>
       </c>
-      <c r="G5" s="24">
-        <v>120</v>
-      </c>
-      <c r="H5" s="31">
+      <c r="G5" s="19">
+        <v>120</v>
+      </c>
+      <c r="H5" s="26">
         <f>G5-J5</f>
         <v>41</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="43">
         <f>(H5)/G5</f>
         <v>0.34166666666666667</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="20">
         <v>79</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="48">
         <v>0.85</v>
       </c>
-      <c r="L5" s="101" t="s">
+      <c r="L5" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="M5" s="107" t="s">
+      <c r="M5" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="33">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="25">
         <v>21331</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="39">
         <v>45</v>
       </c>
-      <c r="E6" s="34">
-        <v>0</v>
-      </c>
-      <c r="F6" s="27">
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
         <v>5</v>
       </c>
-      <c r="G6" s="26">
-        <v>120</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="G6" s="21">
+        <v>120</v>
+      </c>
+      <c r="H6" s="11">
         <f t="shared" ref="H6:H31" si="0">G6-J6</f>
         <v>39</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="44">
         <f>(H6)/G6</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="22">
         <v>81</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="27">
         <v>0.88</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="M6" s="90"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="33">
         <f t="shared" ref="A7:A31" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="25">
         <v>721</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="39">
         <v>49</v>
       </c>
-      <c r="E7" s="106">
+      <c r="E7" s="86">
         <v>6</v>
       </c>
-      <c r="F7" s="27">
-        <v>0</v>
-      </c>
-      <c r="G7" s="26">
-        <v>120</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <v>120</v>
+      </c>
+      <c r="H7" s="11">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="44">
         <f t="shared" ref="I7:I31" si="2">(H7)/G7</f>
         <v>0.34166666666666667</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="22">
         <v>79</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="27">
         <v>0.85</v>
       </c>
-      <c r="L7" s="101" t="s">
+      <c r="L7" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="M7" s="107" t="s">
+      <c r="M7" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="33">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="25">
         <v>39402</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="39">
         <v>47</v>
       </c>
-      <c r="E8" s="34">
-        <v>0</v>
-      </c>
-      <c r="F8" s="27">
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
         <v>5</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="21">
         <v>139</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="44">
         <f t="shared" si="2"/>
         <v>0.43165467625899279</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="22">
         <v>79</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="27">
         <v>0.87</v>
       </c>
-      <c r="L8" s="102" t="s">
+      <c r="L8" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="M8" s="90"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="A9" s="33">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="25">
         <v>983</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="39">
         <v>49</v>
       </c>
-      <c r="E9" s="106">
+      <c r="E9" s="86">
         <v>2</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="22">
         <v>3</v>
       </c>
-      <c r="G9" s="26">
-        <v>120</v>
-      </c>
-      <c r="H9" s="13">
+      <c r="G9" s="21">
+        <v>120</v>
+      </c>
+      <c r="H9" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="44">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="22">
         <v>80</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="27">
         <v>0.88</v>
       </c>
-      <c r="L9" s="103" t="s">
+      <c r="L9" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="M9" s="107" t="s">
+      <c r="M9" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="A10" s="33">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="25">
         <v>680</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="39">
         <v>49</v>
       </c>
-      <c r="E10" s="34">
-        <v>0</v>
-      </c>
-      <c r="F10" s="27">
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
         <v>3</v>
       </c>
-      <c r="G10" s="26">
-        <v>120</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="G10" s="21">
+        <v>120</v>
+      </c>
+      <c r="H10" s="11">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="44">
         <f t="shared" si="2"/>
         <v>0.31666666666666665</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="22">
         <v>82</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="28">
         <v>0.84</v>
       </c>
-      <c r="L10" s="101" t="s">
+      <c r="L10" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="M10" s="90"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="33">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="25">
         <v>3825</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="39">
         <v>50</v>
       </c>
-      <c r="E11" s="34">
-        <v>0</v>
-      </c>
-      <c r="F11" s="27">
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
         <v>4</v>
       </c>
-      <c r="G11" s="26">
-        <v>120</v>
-      </c>
-      <c r="H11" s="13">
+      <c r="G11" s="21">
+        <v>120</v>
+      </c>
+      <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="44">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="22">
         <v>80</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="28">
         <v>0.86</v>
       </c>
-      <c r="L11" s="103" t="s">
+      <c r="L11" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="90"/>
+      <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="A12" s="33">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="25">
         <v>5326</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="39">
         <v>50</v>
       </c>
-      <c r="E12" s="34">
-        <v>0</v>
-      </c>
-      <c r="F12" s="27">
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22">
         <v>3</v>
       </c>
-      <c r="G12" s="26">
-        <v>120</v>
-      </c>
-      <c r="H12" s="13">
+      <c r="G12" s="21">
+        <v>120</v>
+      </c>
+      <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="44">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="22">
         <v>90</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="28">
         <v>0.91</v>
       </c>
-      <c r="L12" s="103" t="s">
+      <c r="L12" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="M12" s="90"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="33">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="25">
         <v>3290</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="39">
         <v>50</v>
       </c>
-      <c r="E13" s="34">
-        <v>0</v>
-      </c>
-      <c r="F13" s="27">
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22">
         <v>3</v>
       </c>
-      <c r="G13" s="26">
-        <v>120</v>
-      </c>
-      <c r="H13" s="13">
+      <c r="G13" s="21">
+        <v>120</v>
+      </c>
+      <c r="H13" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="44">
         <f t="shared" si="2"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="22">
         <v>88</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="28">
         <v>0.89</v>
       </c>
-      <c r="L13" s="103" t="s">
+      <c r="L13" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="M13" s="90"/>
+      <c r="M13" s="72"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="33">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="25">
         <v>943</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="39">
         <v>50</v>
       </c>
-      <c r="E14" s="106">
+      <c r="E14" s="86">
         <v>2</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="22">
         <v>2</v>
       </c>
-      <c r="G14" s="26">
-        <v>120</v>
-      </c>
-      <c r="H14" s="13">
+      <c r="G14" s="21">
+        <v>120</v>
+      </c>
+      <c r="H14" s="11">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="44">
         <f t="shared" si="2"/>
         <v>0.30833333333333335</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="22">
         <v>83</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="28">
         <v>0.88</v>
       </c>
-      <c r="L14" s="103" t="s">
+      <c r="L14" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="M14" s="107" t="s">
+      <c r="M14" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="33">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="25">
         <v>1594</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="39">
         <v>50</v>
       </c>
-      <c r="E15" s="34">
-        <v>0</v>
-      </c>
-      <c r="F15" s="27">
+      <c r="E15" s="29">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22">
         <v>4</v>
       </c>
-      <c r="G15" s="26">
-        <v>120</v>
-      </c>
-      <c r="H15" s="13">
+      <c r="G15" s="21">
+        <v>120</v>
+      </c>
+      <c r="H15" s="11">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="44">
         <f t="shared" si="2"/>
         <v>0.35833333333333334</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="22">
         <v>77</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="28">
         <v>0.87</v>
       </c>
-      <c r="L15" s="102" t="s">
+      <c r="L15" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="M15" s="90"/>
+      <c r="M15" s="72"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="33">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="25">
         <v>822</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="39">
         <v>48</v>
       </c>
-      <c r="E16" s="34">
-        <v>0</v>
-      </c>
-      <c r="F16" s="27">
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22">
         <v>5</v>
       </c>
-      <c r="G16" s="26">
-        <v>120</v>
-      </c>
-      <c r="H16" s="13">
+      <c r="G16" s="21">
+        <v>120</v>
+      </c>
+      <c r="H16" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I16" s="58">
+      <c r="I16" s="44">
         <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="22">
         <v>75</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="28">
         <v>0.86</v>
       </c>
-      <c r="L16" s="102" t="s">
+      <c r="L16" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="M16" s="90"/>
+      <c r="M16" s="72"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="A17" s="33">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="25">
         <v>2093</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="39">
         <v>49</v>
       </c>
-      <c r="E17" s="34">
-        <v>0</v>
-      </c>
-      <c r="F17" s="27">
+      <c r="E17" s="29">
+        <v>0</v>
+      </c>
+      <c r="F17" s="22">
         <v>3</v>
       </c>
-      <c r="G17" s="26">
-        <v>120</v>
-      </c>
-      <c r="H17" s="13">
+      <c r="G17" s="21">
+        <v>120</v>
+      </c>
+      <c r="H17" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="44">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="22">
         <v>80</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="28">
         <v>0.88</v>
       </c>
-      <c r="L17" s="103" t="s">
+      <c r="L17" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="M17" s="90"/>
+      <c r="M17" s="72"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="A18" s="33">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="25">
         <v>4584</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="39">
         <v>50</v>
       </c>
-      <c r="E18" s="34">
-        <v>0</v>
-      </c>
-      <c r="F18" s="27">
+      <c r="E18" s="29">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22">
         <v>5</v>
       </c>
-      <c r="G18" s="26">
-        <v>120</v>
-      </c>
-      <c r="H18" s="13">
+      <c r="G18" s="21">
+        <v>120</v>
+      </c>
+      <c r="H18" s="11">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="44">
         <f t="shared" si="2"/>
         <v>0.34166666666666667</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="22">
         <v>79</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="28">
         <v>0.87</v>
       </c>
-      <c r="L18" s="102" t="s">
+      <c r="L18" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="90"/>
+      <c r="M18" s="72"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="A19" s="33">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="25">
         <v>1579</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="39">
         <v>49</v>
       </c>
-      <c r="E19" s="106">
+      <c r="E19" s="86">
         <v>3</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="22">
         <v>4</v>
       </c>
-      <c r="G19" s="26">
-        <v>120</v>
-      </c>
-      <c r="H19" s="13">
+      <c r="G19" s="21">
+        <v>120</v>
+      </c>
+      <c r="H19" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="44">
         <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="22">
         <v>75</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="28">
         <v>0.83</v>
       </c>
-      <c r="L19" s="102" t="s">
+      <c r="L19" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="M19" s="107" t="s">
+      <c r="M19" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="A20" s="33">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="25">
         <v>796</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="39">
         <v>50</v>
       </c>
-      <c r="E20" s="106">
+      <c r="E20" s="86">
         <v>4</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="22">
         <v>3</v>
       </c>
-      <c r="G20" s="26">
-        <v>120</v>
-      </c>
-      <c r="H20" s="13">
+      <c r="G20" s="21">
+        <v>120</v>
+      </c>
+      <c r="H20" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="I20" s="58">
+      <c r="I20" s="44">
         <f t="shared" si="2"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="22">
         <v>85</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="28">
         <v>0.88</v>
       </c>
-      <c r="L20" s="103" t="s">
+      <c r="L20" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="M20" s="107" t="s">
+      <c r="M20" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="A21" s="33">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="25">
         <v>325</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="39">
         <v>50</v>
       </c>
-      <c r="E21" s="106">
+      <c r="E21" s="86">
         <v>1</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="22">
         <v>2</v>
       </c>
-      <c r="G21" s="26">
-        <v>120</v>
-      </c>
-      <c r="H21" s="13">
+      <c r="G21" s="21">
+        <v>120</v>
+      </c>
+      <c r="H21" s="11">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="44">
         <f t="shared" si="2"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="22">
         <v>81</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="28">
         <v>0.87</v>
       </c>
-      <c r="L21" s="101" t="s">
+      <c r="L21" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="M21" s="107" t="s">
+      <c r="M21" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="A22" s="33">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="25">
         <v>183</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="39">
         <v>50</v>
       </c>
-      <c r="E22" s="106">
+      <c r="E22" s="86">
         <v>1</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="22">
         <v>4</v>
       </c>
-      <c r="G22" s="26">
-        <v>120</v>
-      </c>
-      <c r="H22" s="13">
+      <c r="G22" s="21">
+        <v>120</v>
+      </c>
+      <c r="H22" s="11">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="44">
         <f t="shared" si="2"/>
         <v>0.38333333333333336</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="22">
         <v>74</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="28">
         <v>0.86</v>
       </c>
-      <c r="L22" s="104" t="s">
+      <c r="L22" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="107" t="s">
+      <c r="M22" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="A23" s="33">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="68">
         <v>62</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="56">
         <v>50</v>
       </c>
-      <c r="E23" s="106">
+      <c r="E23" s="86">
         <v>2</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="35">
         <v>5</v>
       </c>
-      <c r="G23" s="72">
-        <v>120</v>
-      </c>
-      <c r="H23" s="50">
+      <c r="G23" s="58">
+        <v>120</v>
+      </c>
+      <c r="H23" s="36">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I23" s="73">
+      <c r="I23" s="59">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="J23" s="49">
+      <c r="J23" s="35">
         <v>72</v>
       </c>
-      <c r="K23" s="74">
+      <c r="K23" s="60">
         <v>0.86</v>
       </c>
-      <c r="L23" s="105" t="s">
+      <c r="L23" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="107" t="s">
+      <c r="M23" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
+      <c r="A24" s="33">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="25">
         <v>7161</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="39">
         <v>50</v>
       </c>
-      <c r="E24" s="106">
+      <c r="E24" s="86">
         <v>4</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="22">
         <v>3</v>
       </c>
-      <c r="G24" s="26">
-        <v>120</v>
-      </c>
-      <c r="H24" s="13">
+      <c r="G24" s="21">
+        <v>120</v>
+      </c>
+      <c r="H24" s="11">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I24" s="58">
+      <c r="I24" s="44">
         <f t="shared" si="2"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="22">
         <v>81</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="28">
         <v>0.82</v>
       </c>
-      <c r="L24" s="101" t="s">
+      <c r="L24" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="M24" s="107" t="s">
+      <c r="M24" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+      <c r="A25" s="33">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="25">
         <v>7984</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="39">
         <v>50</v>
       </c>
-      <c r="E25" s="34">
-        <v>0</v>
-      </c>
-      <c r="F25" s="27">
+      <c r="E25" s="29">
+        <v>0</v>
+      </c>
+      <c r="F25" s="22">
         <v>4</v>
       </c>
-      <c r="G25" s="26">
-        <v>120</v>
-      </c>
-      <c r="H25" s="13">
+      <c r="G25" s="21">
+        <v>120</v>
+      </c>
+      <c r="H25" s="11">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="44">
         <f t="shared" si="2"/>
         <v>0.31666666666666665</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="22">
         <v>82</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="28">
         <v>0.85</v>
       </c>
-      <c r="L25" s="103" t="s">
+      <c r="L25" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="90"/>
+      <c r="M25" s="72"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
+      <c r="A26" s="33">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="25">
         <v>10743</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="39">
         <v>48</v>
       </c>
-      <c r="E26" s="106">
+      <c r="E26" s="86">
         <v>4</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="22">
         <v>1</v>
       </c>
-      <c r="G26" s="26">
-        <v>120</v>
-      </c>
-      <c r="H26" s="13">
+      <c r="G26" s="21">
+        <v>120</v>
+      </c>
+      <c r="H26" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="44">
         <f t="shared" si="2"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="22">
         <v>85</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="28">
         <v>0.82</v>
       </c>
-      <c r="L26" s="101" t="s">
+      <c r="L26" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="M26" s="107" t="s">
+      <c r="M26" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
+      <c r="A27" s="33">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="25">
         <v>1048</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="39">
         <v>50</v>
       </c>
-      <c r="E27" s="106">
+      <c r="E27" s="86">
         <v>2</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="22">
         <v>10</v>
       </c>
-      <c r="G27" s="26">
-        <v>120</v>
-      </c>
-      <c r="H27" s="13">
+      <c r="G27" s="21">
+        <v>120</v>
+      </c>
+      <c r="H27" s="11">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="44">
         <f t="shared" si="2"/>
         <v>0.47499999999999998</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="22">
         <v>63</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="28">
         <v>0.8</v>
       </c>
-      <c r="L27" s="104" t="s">
+      <c r="L27" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="M27" s="107" t="s">
+      <c r="M27" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
+      <c r="A28" s="33">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="86">
+      <c r="C28" s="68">
         <v>42</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="56">
         <v>50</v>
       </c>
-      <c r="E28" s="106">
+      <c r="E28" s="86">
         <v>1</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="35">
         <v>10</v>
       </c>
-      <c r="G28" s="72">
-        <v>120</v>
-      </c>
-      <c r="H28" s="50">
+      <c r="G28" s="58">
+        <v>120</v>
+      </c>
+      <c r="H28" s="36">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="I28" s="73">
+      <c r="I28" s="59">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
-      <c r="J28" s="49">
+      <c r="J28" s="35">
         <v>66</v>
       </c>
-      <c r="K28" s="74">
+      <c r="K28" s="60">
         <v>0.85</v>
       </c>
-      <c r="L28" s="105" t="s">
+      <c r="L28" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="M28" s="107" t="s">
+      <c r="M28" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="38">
+      <c r="A29" s="33">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="25">
         <v>420</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="39">
         <v>47</v>
       </c>
-      <c r="E29" s="106">
+      <c r="E29" s="86">
         <v>5</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="22">
         <v>7</v>
       </c>
-      <c r="G29" s="26">
-        <v>120</v>
-      </c>
-      <c r="H29" s="13">
+      <c r="G29" s="21">
+        <v>120</v>
+      </c>
+      <c r="H29" s="11">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I29" s="44">
         <f t="shared" si="2"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="22">
         <v>64</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="28">
         <v>0.8</v>
       </c>
-      <c r="L29" s="104" t="s">
+      <c r="L29" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="M29" s="107" t="s">
+      <c r="M29" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="38">
+      <c r="A30" s="33">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="25">
         <v>220</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="39">
         <v>45</v>
       </c>
-      <c r="E30" s="106">
+      <c r="E30" s="86">
         <v>3</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="22">
         <v>4</v>
       </c>
-      <c r="G30" s="26">
-        <v>120</v>
-      </c>
-      <c r="H30" s="13">
+      <c r="G30" s="21">
+        <v>120</v>
+      </c>
+      <c r="H30" s="11">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="I30" s="58">
+      <c r="I30" s="44">
         <f t="shared" si="2"/>
         <v>0.35833333333333334</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="22">
         <v>77</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="28">
         <v>0.9</v>
       </c>
-      <c r="L30" s="102" t="s">
+      <c r="L30" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="M30" s="107" t="s">
+      <c r="M30" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39">
+      <c r="A31" s="34">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="30">
         <v>124</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="40">
         <v>50</v>
       </c>
-      <c r="E31" s="108">
+      <c r="E31" s="88">
         <v>5</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="24">
         <v>2</v>
       </c>
-      <c r="G31" s="28">
-        <v>120</v>
-      </c>
-      <c r="H31" s="36">
+      <c r="G31" s="23">
+        <v>120</v>
+      </c>
+      <c r="H31" s="31">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I31" s="59">
+      <c r="I31" s="45">
         <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="24">
         <v>70</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="32">
         <v>0.81</v>
       </c>
-      <c r="L31" s="104" t="s">
+      <c r="L31" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="M31" s="107" t="s">
+      <c r="M31" s="87" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2767,10 +2788,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="H30" sqref="H30"/>
+      <selection pane="topRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2792,1730 +2813,1736 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="42" t="s">
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44" t="s">
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="89" t="s">
+      <c r="N3" s="103"/>
+      <c r="O3" s="71" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="61" t="s">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="18" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="62">
+      <c r="A5" s="48">
         <v>1</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="51">
         <v>4213</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="38">
         <v>48</v>
       </c>
-      <c r="E5" s="110">
+      <c r="E5" s="90">
         <v>4</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="24">
+      <c r="F5" s="41"/>
+      <c r="G5" s="19">
         <v>122</v>
       </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="57">
-        <f t="shared" ref="J5:J32" si="0">I5/G5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="99">
+      <c r="H5" s="78"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="43">
+        <f t="shared" ref="J5:J21" si="0">I5/G5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="79">
         <f>H5-I5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="20">
         <f t="shared" ref="L5:L42" si="1">G5-I5</f>
         <v>122</v>
       </c>
-      <c r="M5" s="79">
+      <c r="M5" s="65">
         <v>0.85899999999999999</v>
       </c>
-      <c r="N5" s="80" t="s">
+      <c r="N5" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="O5" s="107" t="s">
+      <c r="O5" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="27">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="25">
         <v>8209</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="39">
         <v>48</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="91">
         <v>2</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="26">
+      <c r="F6" s="29"/>
+      <c r="G6" s="21">
         <v>122</v>
       </c>
-      <c r="H6" s="69"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="58">
+      <c r="J6" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="95">
+      <c r="K6" s="75">
         <f t="shared" ref="K6:K21" si="2">H6-I6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="22">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="28">
         <v>0.84399999999999997</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="O6" s="107" t="s">
+      <c r="O6" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="27">
         <f t="shared" ref="A7:A43" si="3">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="25">
         <v>5076</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="39">
         <v>48</v>
       </c>
-      <c r="E7" s="111">
+      <c r="E7" s="91">
         <v>1</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="26">
+      <c r="F7" s="29"/>
+      <c r="G7" s="21">
         <v>122</v>
       </c>
-      <c r="H7" s="69"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="58">
+      <c r="J7" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="95">
+      <c r="K7" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="22">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="28">
         <v>0.87</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="107" t="s">
+      <c r="O7" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="27">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="25">
         <v>1363</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="39">
         <v>48</v>
       </c>
-      <c r="E8" s="111">
+      <c r="E8" s="91">
         <v>2</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="26">
+      <c r="F8" s="29"/>
+      <c r="G8" s="21">
         <v>122</v>
       </c>
-      <c r="H8" s="69"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="58">
+      <c r="J8" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="95">
+      <c r="K8" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="22">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="28">
         <v>0.80700000000000005</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="107" t="s">
+      <c r="O8" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="27">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="68">
         <v>57</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="60">
         <v>37</v>
       </c>
-      <c r="E9" s="112">
+      <c r="E9" s="92">
         <v>2</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="74">
-        <v>120</v>
-      </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="58">
+      <c r="F9" s="36"/>
+      <c r="G9" s="60">
+        <v>120</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="95">
+      <c r="K9" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M9" s="74"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="107" t="s">
+      <c r="L9" s="116">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="27">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>898</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="28">
         <v>39</v>
       </c>
-      <c r="E10" s="112">
+      <c r="E10" s="92">
         <v>2</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="33">
-        <v>120</v>
-      </c>
-      <c r="H10" s="69"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="28">
+        <v>120</v>
+      </c>
+      <c r="H10" s="55"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="58">
+      <c r="J10" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="95">
+      <c r="K10" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M10" s="33">
+      <c r="L10" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="M10" s="28">
         <v>0.78600000000000003</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O10" s="107" t="s">
+      <c r="O10" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="27">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>1718</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="28">
         <v>39</v>
       </c>
-      <c r="E11" s="30">
-        <v>0</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="33">
-        <v>120</v>
-      </c>
-      <c r="H11" s="69"/>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="28">
+        <v>120</v>
+      </c>
+      <c r="H11" s="55"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="58">
+      <c r="J11" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="95">
+      <c r="K11" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M11" s="33">
+      <c r="L11" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="M11" s="28">
         <v>0.83299999999999996</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O11" s="93"/>
+      <c r="O11" s="73"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="27">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="25">
         <v>97</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="39">
         <v>41</v>
       </c>
-      <c r="E12" s="106">
+      <c r="E12" s="86">
         <v>6</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="26">
-        <v>120</v>
-      </c>
-      <c r="H12" s="69"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="21">
+        <v>120</v>
+      </c>
+      <c r="H12" s="55"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="58">
+      <c r="J12" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="95">
+      <c r="K12" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M12" s="33">
+      <c r="L12" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="M12" s="28">
         <v>0.84399999999999997</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="O12" s="107" t="s">
+      <c r="O12" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="27">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>765</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="28">
         <v>46</v>
       </c>
-      <c r="E13" s="30">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="33">
-        <v>120</v>
-      </c>
-      <c r="H13" s="69"/>
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="28">
+        <v>120</v>
+      </c>
+      <c r="H13" s="55"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="58">
+      <c r="J13" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="95">
+      <c r="K13" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M13" s="33">
+      <c r="L13" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="M13" s="28">
         <v>0.82799999999999996</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O13" s="93"/>
+      <c r="O13" s="73"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="27">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>2487</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="28">
         <v>49</v>
       </c>
-      <c r="E14" s="112">
+      <c r="E14" s="92">
         <v>1</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="33">
-        <v>120</v>
-      </c>
-      <c r="H14" s="69"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="28">
+        <v>120</v>
+      </c>
+      <c r="H14" s="55"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="58">
+      <c r="J14" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="95">
+      <c r="K14" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M14" s="33">
+      <c r="L14" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="M14" s="28">
         <v>0.83499999999999996</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O14" s="107" t="s">
+      <c r="O14" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="27">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>6017</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="28">
         <v>49</v>
       </c>
-      <c r="E15" s="112">
+      <c r="E15" s="92">
         <v>2</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="33">
-        <v>120</v>
-      </c>
-      <c r="H15" s="69"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="28">
+        <v>120</v>
+      </c>
+      <c r="H15" s="55"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="58">
+      <c r="J15" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="95">
+      <c r="K15" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M15" s="33">
+      <c r="L15" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="M15" s="28">
         <v>0.85499999999999998</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="O15" s="107" t="s">
+      <c r="O15" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+      <c r="A16" s="27">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>2109</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="28">
         <v>49</v>
       </c>
-      <c r="E16" s="112">
+      <c r="E16" s="92">
         <v>2</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="33">
-        <v>120</v>
-      </c>
-      <c r="H16" s="69"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="28">
+        <v>120</v>
+      </c>
+      <c r="H16" s="55"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="58">
+      <c r="J16" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="95">
+      <c r="K16" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M16" s="33">
+      <c r="L16" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="M16" s="28">
         <v>0.84099999999999997</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O16" s="107" t="s">
+      <c r="O16" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="27">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>664</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="28">
         <v>57</v>
       </c>
-      <c r="E17" s="112">
+      <c r="E17" s="92">
         <v>1</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="33">
+      <c r="F17" s="25"/>
+      <c r="G17" s="28">
         <v>134</v>
       </c>
-      <c r="H17" s="69"/>
+      <c r="H17" s="55"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="58">
+      <c r="J17" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="95">
+      <c r="K17" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="22">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="28">
         <v>0.83599999999999997</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O17" s="107" t="s">
+      <c r="O17" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="27">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="74">
+      <c r="C18" s="69"/>
+      <c r="D18" s="60">
         <v>40</v>
       </c>
-      <c r="E18" s="112">
+      <c r="E18" s="92">
         <v>3</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="74">
-        <v>120</v>
-      </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="58">
+      <c r="F18" s="36"/>
+      <c r="G18" s="60">
+        <v>120</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="95">
+      <c r="K18" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M18" s="74"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="107" t="s">
+      <c r="L18" s="116">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="27">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>151</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="27">
         <v>46</v>
       </c>
-      <c r="E19" s="112">
+      <c r="E19" s="92">
         <v>2</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="32">
-        <v>120</v>
-      </c>
-      <c r="H19" s="69"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="27">
+        <v>120</v>
+      </c>
+      <c r="H19" s="55"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="58">
+      <c r="J19" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="95">
+      <c r="K19" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L19" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M19" s="32">
+      <c r="L19" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="M19" s="27">
         <v>0.83299999999999996</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="O19" s="107" t="s">
+      <c r="O19" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="A20" s="27">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>333</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="28">
         <v>46</v>
       </c>
-      <c r="E20" s="30">
-        <v>0</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="33">
-        <v>120</v>
-      </c>
-      <c r="H20" s="69"/>
+      <c r="E20" s="25">
+        <v>0</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="28">
+        <v>120</v>
+      </c>
+      <c r="H20" s="55"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="58">
+      <c r="J20" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="95">
+      <c r="K20" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M20" s="33">
+      <c r="L20" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="M20" s="28">
         <v>0.84699999999999998</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O20" s="93"/>
+      <c r="O20" s="73"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+      <c r="A21" s="27">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>100</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="28">
         <v>46</v>
       </c>
-      <c r="E21" s="112">
+      <c r="E21" s="92">
         <v>2</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="33">
-        <v>120</v>
-      </c>
-      <c r="H21" s="69"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="28">
+        <v>120</v>
+      </c>
+      <c r="H21" s="55"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="58">
+      <c r="J21" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="95">
+      <c r="K21" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L21" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M21" s="33">
+      <c r="L21" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="M21" s="28">
         <v>0.81799999999999995</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="107" t="s">
+      <c r="O21" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+      <c r="A22" s="27">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="86">
+      <c r="C22" s="68">
         <v>17</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="56">
         <v>50</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72">
-        <v>120</v>
-      </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="107" t="s">
+      <c r="F22" s="57"/>
+      <c r="G22" s="58">
+        <v>120</v>
+      </c>
+      <c r="H22" s="64"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+      <c r="A23" s="27">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="68">
         <v>21</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="56">
         <v>50</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72">
-        <v>120</v>
-      </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="107" t="s">
+      <c r="F23" s="57"/>
+      <c r="G23" s="58">
+        <v>120</v>
+      </c>
+      <c r="H23" s="64"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="A24" s="27">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="68">
         <v>16</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="56">
         <v>50</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="72">
-        <v>120</v>
-      </c>
-      <c r="H24" s="78"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="107" t="s">
+      <c r="F24" s="57"/>
+      <c r="G24" s="58">
+        <v>120</v>
+      </c>
+      <c r="H24" s="64"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
+      <c r="A25" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="68">
         <v>71</v>
       </c>
-      <c r="D25" s="70">
+      <c r="D25" s="56">
         <v>50</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72">
-        <v>120</v>
-      </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="107" t="s">
+      <c r="F25" s="57"/>
+      <c r="G25" s="58">
+        <v>120</v>
+      </c>
+      <c r="H25" s="64"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+      <c r="A26" s="27">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="86">
+      <c r="C26" s="68">
         <v>47</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="56">
         <v>50</v>
       </c>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72">
-        <v>120</v>
-      </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="107" t="s">
+      <c r="F26" s="57"/>
+      <c r="G26" s="58">
+        <v>120</v>
+      </c>
+      <c r="H26" s="64"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
+      <c r="A27" s="27">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="86">
+      <c r="C27" s="68">
         <v>27</v>
       </c>
-      <c r="D27" s="70">
+      <c r="D27" s="56">
         <v>50</v>
       </c>
-      <c r="E27" s="113" t="s">
+      <c r="E27" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72">
-        <v>120</v>
-      </c>
-      <c r="H27" s="78"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="107" t="s">
+      <c r="F27" s="57"/>
+      <c r="G27" s="58">
+        <v>120</v>
+      </c>
+      <c r="H27" s="64"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+      <c r="A28" s="27">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="86">
+      <c r="C28" s="68">
         <v>16</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="56">
         <v>50</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72">
-        <v>120</v>
-      </c>
-      <c r="H28" s="78"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="107" t="s">
+      <c r="F28" s="57"/>
+      <c r="G28" s="58">
+        <v>120</v>
+      </c>
+      <c r="H28" s="64"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+      <c r="A29" s="27">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="86">
+      <c r="C29" s="68">
         <v>67</v>
       </c>
-      <c r="D29" s="70">
+      <c r="D29" s="56">
         <v>50</v>
       </c>
-      <c r="E29" s="113" t="s">
+      <c r="E29" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72">
-        <v>120</v>
-      </c>
-      <c r="H29" s="78"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="107" t="s">
+      <c r="F29" s="57"/>
+      <c r="G29" s="58">
+        <v>120</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="27">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="86">
+      <c r="C30" s="68">
         <v>20</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="56">
         <v>50</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="71"/>
-      <c r="G30" s="72">
-        <v>120</v>
-      </c>
-      <c r="H30" s="78"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="107" t="s">
+      <c r="F30" s="57"/>
+      <c r="G30" s="58">
+        <v>120</v>
+      </c>
+      <c r="H30" s="64"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="A31" s="27">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="86">
+      <c r="C31" s="68">
         <v>28</v>
       </c>
-      <c r="D31" s="70">
+      <c r="D31" s="56">
         <v>50</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="72">
-        <v>120</v>
-      </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="107" t="s">
+      <c r="F31" s="57"/>
+      <c r="G31" s="58">
+        <v>120</v>
+      </c>
+      <c r="H31" s="64"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+      <c r="A32" s="27">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="86">
+      <c r="C32" s="68">
         <v>24</v>
       </c>
-      <c r="D32" s="70">
+      <c r="D32" s="56">
         <v>50</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="72">
-        <v>120</v>
-      </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="107" t="s">
+      <c r="F32" s="57"/>
+      <c r="G32" s="58">
+        <v>120</v>
+      </c>
+      <c r="H32" s="64"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+      <c r="A33" s="27">
         <f>A39+1</f>
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="25">
         <v>450</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="39">
         <v>50</v>
       </c>
-      <c r="E33" s="106">
+      <c r="E33" s="86">
         <v>1</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="29">
         <v>5</v>
       </c>
-      <c r="G33" s="26">
-        <v>120</v>
-      </c>
-      <c r="H33" s="114"/>
-      <c r="J33" s="58">
+      <c r="G33" s="21">
+        <v>120</v>
+      </c>
+      <c r="H33" s="94"/>
+      <c r="J33" s="44">
         <f>I39/G33</f>
         <v>0.4</v>
       </c>
-      <c r="K33" s="95">
+      <c r="K33" s="75">
         <f>H39-I39</f>
         <v>77</v>
       </c>
-      <c r="L33" s="27">
+      <c r="L33" s="22">
         <f>G33-I39</f>
         <v>72</v>
       </c>
-      <c r="M33" s="33">
+      <c r="M33" s="28">
         <v>0.84699999999999998</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O33" s="107" t="s">
+      <c r="O33" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="27">
         <f>A33+1</f>
         <v>33</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="25">
         <v>1308</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="39">
         <v>50</v>
       </c>
-      <c r="E34" s="106">
+      <c r="E34" s="86">
         <v>2</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="26">
-        <v>120</v>
-      </c>
-      <c r="H34" s="69"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="21">
+        <v>120</v>
+      </c>
+      <c r="H34" s="55"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="58">
+      <c r="J34" s="44">
         <f t="shared" ref="J34:J43" si="4">I34/G34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="95">
-        <f t="shared" ref="K33:K42" si="5">H34-I34</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M34" s="33">
+      <c r="K34" s="75">
+        <f t="shared" ref="K34:K42" si="5">H34-I34</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="M34" s="28">
         <v>0.81100000000000005</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="N34" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O34" s="107" t="s">
+      <c r="O34" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="32">
+      <c r="A35" s="27">
         <f>A32+1</f>
         <v>29</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="25">
         <v>336</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="39">
         <v>52</v>
       </c>
-      <c r="E35" s="106">
+      <c r="E35" s="86">
         <v>2</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="26">
+      <c r="F35" s="29"/>
+      <c r="G35" s="21">
         <v>124</v>
       </c>
-      <c r="H35" s="69"/>
+      <c r="H35" s="55"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="58">
+      <c r="J35" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K35" s="95">
+      <c r="K35" s="75">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L35" s="27">
+      <c r="L35" s="22">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="M35" s="32">
+      <c r="M35" s="27">
         <v>0.87</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="N35" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="O35" s="107" t="s">
+      <c r="O35" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+      <c r="A36" s="27">
         <f>A34+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="25">
         <v>350</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="39">
         <v>53</v>
       </c>
-      <c r="E36" s="106">
+      <c r="E36" s="86">
         <v>13</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="26">
+      <c r="F36" s="29"/>
+      <c r="G36" s="21">
         <v>126</v>
       </c>
-      <c r="H36" s="69"/>
+      <c r="H36" s="55"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="58">
+      <c r="J36" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K36" s="95">
+      <c r="K36" s="75">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L36" s="27">
+      <c r="L36" s="22">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="M36" s="33">
+      <c r="M36" s="28">
         <v>0.83</v>
       </c>
-      <c r="N36" s="15" t="s">
+      <c r="N36" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O36" s="107" t="s">
+      <c r="O36" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+      <c r="A37" s="27">
         <f>A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="25">
         <v>1110</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="39">
         <v>51</v>
       </c>
-      <c r="E37" s="106">
+      <c r="E37" s="86">
         <v>1</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="26">
+      <c r="F37" s="29"/>
+      <c r="G37" s="21">
         <v>122</v>
       </c>
-      <c r="H37" s="69"/>
+      <c r="H37" s="55"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="58">
+      <c r="J37" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K37" s="95">
+      <c r="K37" s="75">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L37" s="27">
+      <c r="L37" s="22">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="M37" s="33">
+      <c r="M37" s="28">
         <v>0.84799999999999998</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="O37" s="107" t="s">
+      <c r="O37" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="A38" s="27">
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="25">
         <v>260</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="39">
         <v>55</v>
       </c>
-      <c r="E38" s="106">
+      <c r="E38" s="86">
         <v>1</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="29">
         <v>5</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="21">
         <v>130</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="55">
         <v>130</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="25">
         <v>48</v>
       </c>
-      <c r="J38" s="58">
+      <c r="J38" s="44">
         <f t="shared" si="4"/>
         <v>0.36923076923076925</v>
       </c>
-      <c r="K38" s="95">
+      <c r="K38" s="75">
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="L38" s="27">
+      <c r="L38" s="22">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="M38" s="33">
+      <c r="M38" s="28">
         <v>0.84299999999999997</v>
       </c>
-      <c r="N38" s="15" t="s">
+      <c r="N38" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O38" s="107" t="s">
+      <c r="O38" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
+      <c r="A39" s="27">
         <f>A40+1</f>
         <v>31</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="25">
         <v>276</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="39">
         <v>49</v>
       </c>
-      <c r="E39" s="106">
+      <c r="E39" s="86">
         <v>8</v>
       </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="26">
+      <c r="F39" s="29"/>
+      <c r="G39" s="21">
         <v>125</v>
       </c>
-      <c r="H39" s="69">
+      <c r="H39" s="55">
         <v>125</v>
       </c>
       <c r="I39" s="9">
         <v>48</v>
       </c>
-      <c r="J39" s="58" t="e">
-        <f>#REF!/G39</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K39" s="95" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L39" s="27" t="e">
-        <f>G39-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M39" s="33">
+      <c r="J39" s="44">
+        <f t="shared" si="4"/>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="K39" s="75">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="L39" s="22">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="M39" s="28">
         <v>0.80700000000000005</v>
       </c>
-      <c r="N39" s="15" t="s">
+      <c r="N39" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O39" s="107" t="s">
+      <c r="O39" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="32">
+      <c r="A40" s="27">
         <f>A35+1</f>
         <v>30</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="25">
         <v>246</v>
       </c>
-      <c r="D40" s="53">
+      <c r="D40" s="39">
         <v>48</v>
       </c>
-      <c r="E40" s="106">
+      <c r="E40" s="86">
         <v>1</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="29">
         <v>2</v>
       </c>
-      <c r="G40" s="26">
-        <v>120</v>
-      </c>
-      <c r="H40" s="69">
+      <c r="G40" s="21">
+        <v>120</v>
+      </c>
+      <c r="H40" s="117">
         <v>130</v>
       </c>
       <c r="I40" s="9">
         <v>53</v>
       </c>
-      <c r="J40" s="58">
+      <c r="J40" s="44">
         <f t="shared" si="4"/>
         <v>0.44166666666666665</v>
       </c>
-      <c r="K40" s="95">
+      <c r="K40" s="75">
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="L40" s="27">
+      <c r="L40" s="22">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="M40" s="32">
+      <c r="M40" s="27">
         <v>0.84199999999999997</v>
       </c>
-      <c r="N40" s="15" t="s">
+      <c r="N40" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O40" s="107" t="s">
+      <c r="O40" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="A41" s="27">
         <f>A38+1</f>
         <v>37</v>
       </c>
-      <c r="B41" s="77" t="s">
+      <c r="B41" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="11">
         <v>21631</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="39">
         <v>51</v>
       </c>
-      <c r="E41" s="106">
+      <c r="E41" s="86">
         <v>7</v>
       </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="26">
+      <c r="F41" s="29">
+        <v>3</v>
+      </c>
+      <c r="G41" s="21">
         <v>122</v>
       </c>
-      <c r="H41" s="69"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="58">
+      <c r="H41" s="55">
+        <v>122</v>
+      </c>
+      <c r="I41" s="25">
+        <v>39</v>
+      </c>
+      <c r="J41" s="44">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="95">
+        <v>0.31967213114754101</v>
+      </c>
+      <c r="K41" s="75">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="27">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="M41" s="32">
+        <v>83</v>
+      </c>
+      <c r="L41" s="22">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="M41" s="27">
         <v>0.82899999999999996</v>
       </c>
-      <c r="N41" s="15" t="s">
+      <c r="N41" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O41" s="107" t="s">
+      <c r="O41" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
+      <c r="A42" s="27">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="11">
         <v>12980</v>
       </c>
-      <c r="D42" s="53">
+      <c r="D42" s="39">
         <v>45</v>
       </c>
-      <c r="E42" s="106">
+      <c r="E42" s="86">
         <v>1</v>
       </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="26">
+      <c r="F42" s="29"/>
+      <c r="G42" s="21">
         <v>122</v>
       </c>
-      <c r="H42" s="69"/>
+      <c r="H42" s="55"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="58">
+      <c r="J42" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K42" s="95">
+      <c r="K42" s="75">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L42" s="27">
+      <c r="L42" s="22">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="M42" s="32">
+      <c r="M42" s="27">
         <v>0.84</v>
       </c>
-      <c r="N42" s="15" t="s">
+      <c r="N42" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="O42" s="107" t="s">
+      <c r="O42" s="87" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="63">
+      <c r="A43" s="49">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="31">
         <v>4336</v>
       </c>
-      <c r="D43" s="54">
+      <c r="D43" s="40">
         <v>52</v>
       </c>
-      <c r="E43" s="108">
+      <c r="E43" s="88">
         <v>2</v>
       </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="28">
+      <c r="F43" s="42"/>
+      <c r="G43" s="23">
         <v>124</v>
       </c>
-      <c r="H43" s="97"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="59">
+      <c r="H43" s="77"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K43" s="96">
-        <f t="shared" ref="K41:K43" si="6">H43-I43</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="29">
-        <f t="shared" ref="L34:L43" si="7">G43-I43</f>
+      <c r="K43" s="76">
+        <f t="shared" ref="K43" si="6">H43-I43</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="24">
+        <f t="shared" ref="L43" si="7">G43-I43</f>
         <v>124</v>
       </c>
-      <c r="M43" s="63">
+      <c r="M43" s="49">
         <v>0.84199999999999997</v>
       </c>
-      <c r="N43" s="81" t="s">
+      <c r="N43" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="O43" s="107" t="s">
+      <c r="O43" s="87" t="s">
         <v>111</v>
       </c>
     </row>

--- a/Diagnostico_EB/Propuestas_Formatos/Propuesta_Diag_EB_AdriDaf.xlsx
+++ b/Diagnostico_EB/Propuestas_Formatos/Propuesta_Diag_EB_AdriDaf.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="9720" activeTab="1"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Promoción" sheetId="4" r:id="rId2"/>
     <sheet name="Notas" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="119">
   <si>
     <t>Figura</t>
   </si>
@@ -395,12 +395,25 @@
   <si>
     <t>[4] + 2</t>
   </si>
+  <si>
+    <t>Sin contar reactivos 0</t>
+  </si>
+  <si>
+    <t>Eliminados 
+Sin contar reactivos 0</t>
+  </si>
+  <si>
+    <t>Reactivos a contar (sin 0)</t>
+  </si>
+  <si>
+    <t>(menos) 20 pilotos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,16 +489,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +572,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,7 +776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -782,7 +799,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,14 +809,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,9 +939,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -940,12 +949,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -972,13 +975,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,10 +1014,15 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1079,13 +1083,64 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1258,7 +1313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1293,7 +1348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1470,7 +1525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1505,1265 +1560,1265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="110" t="s">
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="101" t="s">
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="103"/>
-      <c r="M3" s="71" t="s">
+      <c r="L3" s="96"/>
+      <c r="M3" s="65" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="105"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="37" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="22">
         <v>116246</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="35">
         <v>44</v>
       </c>
-      <c r="E5" s="89">
+      <c r="E5" s="81">
         <v>5</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <v>2</v>
       </c>
-      <c r="G5" s="19">
-        <v>120</v>
-      </c>
-      <c r="H5" s="26">
+      <c r="G5" s="16">
+        <v>120</v>
+      </c>
+      <c r="H5" s="23">
         <f>G5-J5</f>
         <v>41</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="40">
         <f>(H5)/G5</f>
         <v>0.34166666666666667</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="17">
         <v>79</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="45">
         <v>0.85</v>
       </c>
-      <c r="L5" s="81" t="s">
+      <c r="L5" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="30">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>21331</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="36">
         <v>45</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="26">
         <v>0</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="19">
         <v>5</v>
       </c>
-      <c r="G6" s="21">
-        <v>120</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="G6" s="18">
+        <v>120</v>
+      </c>
+      <c r="H6" s="10">
         <f t="shared" ref="H6:H31" si="0">G6-J6</f>
         <v>39</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="41">
         <f>(H6)/G6</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="19">
         <v>81</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="24">
         <v>0.88</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="M6" s="72"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="30">
         <f t="shared" ref="A7:A31" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>721</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="36">
         <v>49</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="78">
         <v>6</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="19">
         <v>0</v>
       </c>
-      <c r="G7" s="21">
-        <v>120</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="G7" s="18">
+        <v>120</v>
+      </c>
+      <c r="H7" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="41">
         <f t="shared" ref="I7:I31" si="2">(H7)/G7</f>
         <v>0.34166666666666667</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="19">
         <v>79</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="24">
         <v>0.85</v>
       </c>
-      <c r="L7" s="81" t="s">
+      <c r="L7" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="M7" s="87" t="s">
+      <c r="M7" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="30">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="22">
         <v>39402</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="36">
         <v>47</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="26">
         <v>0</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="19">
         <v>5</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="18">
         <v>139</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="41">
         <f t="shared" si="2"/>
         <v>0.43165467625899279</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="19">
         <v>79</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="24">
         <v>0.87</v>
       </c>
-      <c r="L8" s="82" t="s">
+      <c r="L8" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="M8" s="72"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="30">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="22">
         <v>983</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="36">
         <v>49</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="78">
         <v>2</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="19">
         <v>3</v>
       </c>
-      <c r="G9" s="21">
-        <v>120</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="G9" s="18">
+        <v>120</v>
+      </c>
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="41">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="19">
         <v>80</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="24">
         <v>0.88</v>
       </c>
-      <c r="L9" s="83" t="s">
+      <c r="L9" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="M9" s="87" t="s">
+      <c r="M9" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="30">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="22">
         <v>680</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="36">
         <v>49</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="26">
         <v>0</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="19">
         <v>3</v>
       </c>
-      <c r="G10" s="21">
-        <v>120</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="G10" s="18">
+        <v>120</v>
+      </c>
+      <c r="H10" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="41">
         <f t="shared" si="2"/>
         <v>0.31666666666666665</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="19">
         <v>82</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="25">
         <v>0.84</v>
       </c>
-      <c r="L10" s="81" t="s">
+      <c r="L10" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="M10" s="72"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="30">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="22">
         <v>3825</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="36">
         <v>50</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="26">
         <v>0</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="19">
         <v>4</v>
       </c>
-      <c r="G11" s="21">
-        <v>120</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="G11" s="18">
+        <v>120</v>
+      </c>
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="41">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="19">
         <v>80</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="25">
         <v>0.86</v>
       </c>
-      <c r="L11" s="83" t="s">
+      <c r="L11" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="72"/>
+      <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="30">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="22">
         <v>5326</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="36">
         <v>50</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="26">
         <v>0</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="19">
         <v>3</v>
       </c>
-      <c r="G12" s="21">
-        <v>120</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="G12" s="18">
+        <v>120</v>
+      </c>
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="41">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="19">
         <v>90</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="25">
         <v>0.91</v>
       </c>
-      <c r="L12" s="83" t="s">
+      <c r="L12" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="M12" s="72"/>
+      <c r="M12" s="66"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="30">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="22">
         <v>3290</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="36">
         <v>50</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="26">
         <v>0</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="19">
         <v>3</v>
       </c>
-      <c r="G13" s="21">
-        <v>120</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="G13" s="18">
+        <v>120</v>
+      </c>
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="41">
         <f t="shared" si="2"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="19">
         <v>88</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="25">
         <v>0.89</v>
       </c>
-      <c r="L13" s="83" t="s">
+      <c r="L13" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="M13" s="72"/>
+      <c r="M13" s="66"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="30">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="22">
         <v>943</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="36">
         <v>50</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="78">
         <v>2</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="19">
         <v>2</v>
       </c>
-      <c r="G14" s="21">
-        <v>120</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="G14" s="18">
+        <v>120</v>
+      </c>
+      <c r="H14" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="41">
         <f t="shared" si="2"/>
         <v>0.30833333333333335</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="19">
         <v>83</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="25">
         <v>0.88</v>
       </c>
-      <c r="L14" s="83" t="s">
+      <c r="L14" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="M14" s="87" t="s">
+      <c r="M14" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="30">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="22">
         <v>1594</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="36">
         <v>50</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="26">
         <v>0</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="19">
         <v>4</v>
       </c>
-      <c r="G15" s="21">
-        <v>120</v>
-      </c>
-      <c r="H15" s="11">
+      <c r="G15" s="18">
+        <v>120</v>
+      </c>
+      <c r="H15" s="10">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="41">
         <f t="shared" si="2"/>
         <v>0.35833333333333334</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="19">
         <v>77</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="25">
         <v>0.87</v>
       </c>
-      <c r="L15" s="82" t="s">
+      <c r="L15" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="M15" s="72"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="30">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="22">
         <v>822</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="36">
         <v>48</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="26">
         <v>0</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="19">
         <v>5</v>
       </c>
-      <c r="G16" s="21">
-        <v>120</v>
-      </c>
-      <c r="H16" s="11">
+      <c r="G16" s="18">
+        <v>120</v>
+      </c>
+      <c r="H16" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="41">
         <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="19">
         <v>75</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="25">
         <v>0.86</v>
       </c>
-      <c r="L16" s="82" t="s">
+      <c r="L16" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="M16" s="72"/>
+      <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="30">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="22">
         <v>2093</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="36">
         <v>49</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="26">
         <v>0</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="19">
         <v>3</v>
       </c>
-      <c r="G17" s="21">
-        <v>120</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="G17" s="18">
+        <v>120</v>
+      </c>
+      <c r="H17" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="41">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="19">
         <v>80</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="25">
         <v>0.88</v>
       </c>
-      <c r="L17" s="83" t="s">
+      <c r="L17" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="M17" s="72"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="30">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="22">
         <v>4584</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="36">
         <v>50</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="26">
         <v>0</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="19">
         <v>5</v>
       </c>
-      <c r="G18" s="21">
-        <v>120</v>
-      </c>
-      <c r="H18" s="11">
+      <c r="G18" s="18">
+        <v>120</v>
+      </c>
+      <c r="H18" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="41">
         <f t="shared" si="2"/>
         <v>0.34166666666666667</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="19">
         <v>79</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="25">
         <v>0.87</v>
       </c>
-      <c r="L18" s="82" t="s">
+      <c r="L18" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="72"/>
+      <c r="M18" s="66"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="30">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="22">
         <v>1579</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="36">
         <v>49</v>
       </c>
-      <c r="E19" s="86">
+      <c r="E19" s="78">
         <v>3</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="19">
         <v>4</v>
       </c>
-      <c r="G19" s="21">
-        <v>120</v>
-      </c>
-      <c r="H19" s="11">
+      <c r="G19" s="18">
+        <v>120</v>
+      </c>
+      <c r="H19" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="41">
         <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="19">
         <v>75</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="25">
         <v>0.83</v>
       </c>
-      <c r="L19" s="82" t="s">
+      <c r="L19" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="M19" s="87" t="s">
+      <c r="M19" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="30">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="22">
         <v>796</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="36">
         <v>50</v>
       </c>
-      <c r="E20" s="86">
+      <c r="E20" s="78">
         <v>4</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="19">
         <v>3</v>
       </c>
-      <c r="G20" s="21">
-        <v>120</v>
-      </c>
-      <c r="H20" s="11">
+      <c r="G20" s="18">
+        <v>120</v>
+      </c>
+      <c r="H20" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="41">
         <f t="shared" si="2"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="19">
         <v>85</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="25">
         <v>0.88</v>
       </c>
-      <c r="L20" s="83" t="s">
+      <c r="L20" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="M20" s="87" t="s">
+      <c r="M20" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="30">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="22">
         <v>325</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="36">
         <v>50</v>
       </c>
-      <c r="E21" s="86">
+      <c r="E21" s="78">
         <v>1</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="19">
         <v>2</v>
       </c>
-      <c r="G21" s="21">
-        <v>120</v>
-      </c>
-      <c r="H21" s="11">
+      <c r="G21" s="18">
+        <v>120</v>
+      </c>
+      <c r="H21" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="41">
         <f t="shared" si="2"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="19">
         <v>81</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="25">
         <v>0.87</v>
       </c>
-      <c r="L21" s="81" t="s">
+      <c r="L21" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="M21" s="87" t="s">
+      <c r="M21" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
+      <c r="A22" s="30">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="22">
         <v>183</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="36">
         <v>50</v>
       </c>
-      <c r="E22" s="86">
+      <c r="E22" s="78">
         <v>1</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="19">
         <v>4</v>
       </c>
-      <c r="G22" s="21">
-        <v>120</v>
-      </c>
-      <c r="H22" s="11">
+      <c r="G22" s="18">
+        <v>120</v>
+      </c>
+      <c r="H22" s="10">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="41">
         <f t="shared" si="2"/>
         <v>0.38333333333333336</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="19">
         <v>74</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="25">
         <v>0.86</v>
       </c>
-      <c r="L22" s="84" t="s">
+      <c r="L22" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="87" t="s">
+      <c r="M22" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="30">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="62">
         <v>62</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="53">
         <v>50</v>
       </c>
-      <c r="E23" s="86">
+      <c r="E23" s="78">
         <v>2</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="32">
         <v>5</v>
       </c>
-      <c r="G23" s="58">
-        <v>120</v>
-      </c>
-      <c r="H23" s="36">
+      <c r="G23" s="55">
+        <v>120</v>
+      </c>
+      <c r="H23" s="33">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I23" s="59">
+      <c r="I23" s="56">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="32">
         <v>72</v>
       </c>
-      <c r="K23" s="60">
+      <c r="K23" s="57">
         <v>0.86</v>
       </c>
-      <c r="L23" s="85" t="s">
+      <c r="L23" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="87" t="s">
+      <c r="M23" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
+      <c r="A24" s="30">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="22">
         <v>7161</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="36">
         <v>50</v>
       </c>
-      <c r="E24" s="86">
+      <c r="E24" s="78">
         <v>4</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="19">
         <v>3</v>
       </c>
-      <c r="G24" s="21">
-        <v>120</v>
-      </c>
-      <c r="H24" s="11">
+      <c r="G24" s="18">
+        <v>120</v>
+      </c>
+      <c r="H24" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="41">
         <f t="shared" si="2"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="19">
         <v>81</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="25">
         <v>0.82</v>
       </c>
-      <c r="L24" s="81" t="s">
+      <c r="L24" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="M24" s="87" t="s">
+      <c r="M24" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="30">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="22">
         <v>7984</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="36">
         <v>50</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="26">
         <v>0</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="19">
         <v>4</v>
       </c>
-      <c r="G25" s="21">
-        <v>120</v>
-      </c>
-      <c r="H25" s="11">
+      <c r="G25" s="18">
+        <v>120</v>
+      </c>
+      <c r="H25" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="41">
         <f t="shared" si="2"/>
         <v>0.31666666666666665</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="19">
         <v>82</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="25">
         <v>0.85</v>
       </c>
-      <c r="L25" s="83" t="s">
+      <c r="L25" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="72"/>
+      <c r="M25" s="66"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="30">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="22">
         <v>10743</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="36">
         <v>48</v>
       </c>
-      <c r="E26" s="86">
+      <c r="E26" s="78">
         <v>4</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="19">
         <v>1</v>
       </c>
-      <c r="G26" s="21">
-        <v>120</v>
-      </c>
-      <c r="H26" s="11">
+      <c r="G26" s="18">
+        <v>120</v>
+      </c>
+      <c r="H26" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="41">
         <f t="shared" si="2"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="19">
         <v>85</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="25">
         <v>0.82</v>
       </c>
-      <c r="L26" s="81" t="s">
+      <c r="L26" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="M26" s="87" t="s">
+      <c r="M26" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="A27" s="30">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="22">
         <v>1048</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="36">
         <v>50</v>
       </c>
-      <c r="E27" s="86">
+      <c r="E27" s="78">
         <v>2</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="19">
         <v>10</v>
       </c>
-      <c r="G27" s="21">
-        <v>120</v>
-      </c>
-      <c r="H27" s="11">
+      <c r="G27" s="18">
+        <v>120</v>
+      </c>
+      <c r="H27" s="10">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="41">
         <f t="shared" si="2"/>
         <v>0.47499999999999998</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="19">
         <v>63</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="25">
         <v>0.8</v>
       </c>
-      <c r="L27" s="84" t="s">
+      <c r="L27" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="M27" s="87" t="s">
+      <c r="M27" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="30">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="62">
         <v>42</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28" s="53">
         <v>50</v>
       </c>
-      <c r="E28" s="86">
+      <c r="E28" s="78">
         <v>1</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="32">
         <v>10</v>
       </c>
-      <c r="G28" s="58">
-        <v>120</v>
-      </c>
-      <c r="H28" s="36">
+      <c r="G28" s="55">
+        <v>120</v>
+      </c>
+      <c r="H28" s="33">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="I28" s="59">
+      <c r="I28" s="56">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="32">
         <v>66</v>
       </c>
-      <c r="K28" s="60">
+      <c r="K28" s="57">
         <v>0.85</v>
       </c>
-      <c r="L28" s="85" t="s">
+      <c r="L28" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="M28" s="87" t="s">
+      <c r="M28" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="A29" s="30">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="22">
         <v>420</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="36">
         <v>47</v>
       </c>
-      <c r="E29" s="86">
+      <c r="E29" s="78">
         <v>5</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="19">
         <v>7</v>
       </c>
-      <c r="G29" s="21">
-        <v>120</v>
-      </c>
-      <c r="H29" s="11">
+      <c r="G29" s="18">
+        <v>120</v>
+      </c>
+      <c r="H29" s="10">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I29" s="41">
         <f t="shared" si="2"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="19">
         <v>64</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K29" s="25">
         <v>0.8</v>
       </c>
-      <c r="L29" s="84" t="s">
+      <c r="L29" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="M29" s="87" t="s">
+      <c r="M29" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
+      <c r="A30" s="30">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="22">
         <v>220</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="36">
         <v>45</v>
       </c>
-      <c r="E30" s="86">
+      <c r="E30" s="78">
         <v>3</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="19">
         <v>4</v>
       </c>
-      <c r="G30" s="21">
-        <v>120</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="G30" s="18">
+        <v>120</v>
+      </c>
+      <c r="H30" s="10">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="I30" s="44">
+      <c r="I30" s="41">
         <f t="shared" si="2"/>
         <v>0.35833333333333334</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="19">
         <v>77</v>
       </c>
-      <c r="K30" s="28">
+      <c r="K30" s="25">
         <v>0.9</v>
       </c>
-      <c r="L30" s="82" t="s">
+      <c r="L30" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="M30" s="87" t="s">
+      <c r="M30" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34">
+      <c r="A31" s="31">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="27">
         <v>124</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="37">
         <v>50</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="80">
         <v>5</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="21">
         <v>2</v>
       </c>
-      <c r="G31" s="23">
-        <v>120</v>
-      </c>
-      <c r="H31" s="31">
+      <c r="G31" s="20">
+        <v>120</v>
+      </c>
+      <c r="H31" s="28">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I31" s="45">
+      <c r="I31" s="42">
         <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="21">
         <v>70</v>
       </c>
-      <c r="K31" s="32">
+      <c r="K31" s="29">
         <v>0.81</v>
       </c>
-      <c r="L31" s="84" t="s">
+      <c r="L31" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="M31" s="87" t="s">
+      <c r="M31" s="79" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2786,12 +2841,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="F38" sqref="F38"/>
+      <selection pane="topRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2801,1764 +2856,2110 @@
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="18" width="11.42578125" customWidth="1"/>
+    <col min="7" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
+    <col min="21" max="22" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:22" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="110" t="s">
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="101" t="s">
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="103"/>
-      <c r="O3" s="71" t="s">
+      <c r="R3" s="96"/>
+      <c r="S3" s="65" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="47" t="s">
+    <row r="4" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="N4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="O4" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="P4" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="Q4" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="R4" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="S4" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45">
         <v>1</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="48">
         <v>4213</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="35">
         <v>48</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="82">
         <v>4</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="19">
+      <c r="F5" s="38">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16">
         <v>122</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="43">
-        <f t="shared" ref="J5:J21" si="0">I5/G5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="79">
-        <f>H5-I5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="20">
-        <f t="shared" ref="L5:L42" si="1">G5-I5</f>
+      <c r="H5" s="116">
+        <v>131</v>
+      </c>
+      <c r="I5" s="126">
         <v>122</v>
       </c>
-      <c r="M5" s="65">
+      <c r="J5" s="126">
+        <v>40</v>
+      </c>
+      <c r="K5" s="126">
+        <f>G5-J5</f>
+        <v>82</v>
+      </c>
+      <c r="L5" s="126">
+        <f>K5-20</f>
+        <v>62</v>
+      </c>
+      <c r="M5" s="48">
+        <v>49</v>
+      </c>
+      <c r="N5" s="40">
+        <f>M5/G5</f>
+        <v>0.40163934426229508</v>
+      </c>
+      <c r="O5" s="72">
+        <f>H5-M5</f>
+        <v>82</v>
+      </c>
+      <c r="P5" s="17">
+        <f>G5-M5</f>
+        <v>73</v>
+      </c>
+      <c r="Q5" s="61">
         <v>0.85899999999999999</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="R5" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="O5" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="S5" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>8209</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="36">
         <v>48</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="83">
         <v>2</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="21">
+      <c r="F6" s="26">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18">
         <v>122</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="44">
+      <c r="H6" s="87">
+        <v>142</v>
+      </c>
+      <c r="I6" s="127">
+        <v>122</v>
+      </c>
+      <c r="J6" s="127">
+        <f>60-20</f>
+        <v>40</v>
+      </c>
+      <c r="K6" s="127">
+        <f>I6-J6</f>
+        <v>82</v>
+      </c>
+      <c r="L6" s="126">
+        <f t="shared" ref="L6:L8" si="0">K6-20</f>
+        <v>62</v>
+      </c>
+      <c r="M6" s="22">
+        <v>60</v>
+      </c>
+      <c r="N6" s="41">
+        <f>M6/G6</f>
+        <v>0.49180327868852458</v>
+      </c>
+      <c r="O6" s="69">
+        <f>H6-M6</f>
+        <v>82</v>
+      </c>
+      <c r="P6" s="19">
+        <f>G6-M6</f>
+        <v>62</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="R6" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="S6" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <f t="shared" ref="A7:A43" si="1">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="22">
+        <v>5076</v>
+      </c>
+      <c r="D7" s="36">
+        <v>48</v>
+      </c>
+      <c r="E7" s="83">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18">
+        <v>122</v>
+      </c>
+      <c r="H7" s="87">
+        <v>132</v>
+      </c>
+      <c r="I7" s="127">
+        <v>122</v>
+      </c>
+      <c r="J7" s="87">
+        <v>30</v>
+      </c>
+      <c r="K7" s="87">
+        <f t="shared" ref="K7:K8" si="2">I7-J7</f>
+        <v>92</v>
+      </c>
+      <c r="L7" s="116">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="75">
-        <f t="shared" ref="K6:K21" si="2">H6-I6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="22">
+        <v>72</v>
+      </c>
+      <c r="M7" s="22">
+        <v>40</v>
+      </c>
+      <c r="N7" s="41">
+        <f>M7/G7</f>
+        <v>0.32786885245901637</v>
+      </c>
+      <c r="O7" s="69">
+        <f>H7-M7</f>
+        <v>92</v>
+      </c>
+      <c r="P7" s="19">
+        <f>G7-M7</f>
+        <v>82</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>0.87</v>
+      </c>
+      <c r="R7" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="S7" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1363</v>
+      </c>
+      <c r="D8" s="36">
+        <v>48</v>
+      </c>
+      <c r="E8" s="83">
+        <v>2</v>
+      </c>
+      <c r="F8" s="26">
+        <v>2</v>
+      </c>
+      <c r="G8" s="18">
         <v>122</v>
       </c>
-      <c r="M6" s="28">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="O6" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
-        <f t="shared" ref="A7:A43" si="3">A6+1</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="25">
-        <v>5076</v>
-      </c>
-      <c r="D7" s="39">
-        <v>48</v>
-      </c>
-      <c r="E7" s="91">
-        <v>1</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="21">
-        <v>122</v>
-      </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="75">
+      <c r="H8" s="87">
+        <v>129</v>
+      </c>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L8" s="116">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="M8" s="10">
+        <v>52</v>
+      </c>
+      <c r="N8" s="41">
+        <f>M8/G8</f>
+        <v>0.42622950819672129</v>
+      </c>
+      <c r="O8" s="69">
+        <f>H8-M8</f>
+        <v>77</v>
+      </c>
+      <c r="P8" s="19">
+        <f>G8-M8</f>
+        <v>70</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="R8" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="S8" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
         <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="M7" s="28">
-        <v>0.87</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="25">
-        <v>1363</v>
-      </c>
-      <c r="D8" s="39">
+        <v>5</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="62">
+        <v>57</v>
+      </c>
+      <c r="D9" s="57">
+        <v>37</v>
+      </c>
+      <c r="E9" s="84">
+        <v>2</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="57">
+        <v>120</v>
+      </c>
+      <c r="H9" s="33">
+        <v>120</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="69">
+        <f>H9-M9</f>
+        <v>120</v>
+      </c>
+      <c r="P9" s="86">
+        <f>G9-M9</f>
+        <v>120</v>
+      </c>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="10">
+        <v>898</v>
+      </c>
+      <c r="D10" s="25">
+        <v>39</v>
+      </c>
+      <c r="E10" s="84">
+        <v>2</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25">
+        <v>120</v>
+      </c>
+      <c r="H10" s="52">
+        <v>120</v>
+      </c>
+      <c r="I10" s="52">
+        <v>120</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="10">
+        <v>45</v>
+      </c>
+      <c r="N10" s="41">
+        <f>M10/G10</f>
+        <v>0.375</v>
+      </c>
+      <c r="O10" s="69">
+        <f>H10-M10</f>
+        <v>75</v>
+      </c>
+      <c r="P10" s="19">
+        <f>G10-M10</f>
+        <v>75</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="R10" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="S10" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1718</v>
+      </c>
+      <c r="D11" s="25">
+        <v>39</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2</v>
+      </c>
+      <c r="G11" s="25">
+        <v>120</v>
+      </c>
+      <c r="H11" s="87">
+        <v>129</v>
+      </c>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="10">
+        <v>45</v>
+      </c>
+      <c r="N11" s="41">
+        <f>M11/G11</f>
+        <v>0.375</v>
+      </c>
+      <c r="O11" s="69">
+        <f>H11-M11</f>
+        <v>84</v>
+      </c>
+      <c r="P11" s="19">
+        <f>G11-M11</f>
+        <v>75</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="R11" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="S11" s="67"/>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="22">
+        <v>97</v>
+      </c>
+      <c r="D12" s="36">
+        <v>41</v>
+      </c>
+      <c r="E12" s="78">
+        <v>6</v>
+      </c>
+      <c r="F12" s="26">
+        <v>3</v>
+      </c>
+      <c r="G12" s="18">
+        <v>120</v>
+      </c>
+      <c r="H12" s="52">
+        <v>120</v>
+      </c>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="22">
+        <v>55</v>
+      </c>
+      <c r="N12" s="41">
+        <f>M12/G12</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="O12" s="69">
+        <f>H12-M12</f>
+        <v>65</v>
+      </c>
+      <c r="P12" s="19">
+        <f>G12-M12</f>
+        <v>65</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="R12" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="S12" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="10">
+        <v>765</v>
+      </c>
+      <c r="D13" s="25">
+        <v>46</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22">
+        <v>3</v>
+      </c>
+      <c r="G13" s="25">
+        <v>120</v>
+      </c>
+      <c r="H13" s="87">
+        <v>130</v>
+      </c>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="22">
+        <v>51</v>
+      </c>
+      <c r="N13" s="41">
+        <f>M13/G13</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="O13" s="69">
+        <f>H13-M13</f>
+        <v>79</v>
+      </c>
+      <c r="P13" s="19">
+        <f>G13-M13</f>
+        <v>69</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="R13" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="S13" s="67"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2487</v>
+      </c>
+      <c r="D14" s="25">
+        <v>49</v>
+      </c>
+      <c r="E14" s="84">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22">
+        <v>3</v>
+      </c>
+      <c r="G14" s="25">
+        <v>120</v>
+      </c>
+      <c r="H14" s="87">
+        <v>130</v>
+      </c>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="22">
         <v>48</v>
       </c>
-      <c r="E8" s="91">
+      <c r="N14" s="41">
+        <f>M14/G14</f>
+        <v>0.4</v>
+      </c>
+      <c r="O14" s="69">
+        <f>H14-M14</f>
+        <v>82</v>
+      </c>
+      <c r="P14" s="19">
+        <f>G14-M14</f>
+        <v>72</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="R14" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="S14" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="10">
+        <v>6017</v>
+      </c>
+      <c r="D15" s="25">
+        <v>49</v>
+      </c>
+      <c r="E15" s="84">
         <v>2</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="21">
-        <v>122</v>
-      </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="44">
-        <f t="shared" si="0"/>
+      <c r="F15" s="22">
+        <v>1</v>
+      </c>
+      <c r="G15" s="25">
+        <v>120</v>
+      </c>
+      <c r="H15" s="87">
+        <v>130</v>
+      </c>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="22">
+        <v>51</v>
+      </c>
+      <c r="N15" s="41">
+        <f>M15/G15</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="O15" s="69">
+        <f>H15-M15</f>
+        <v>79</v>
+      </c>
+      <c r="P15" s="19">
+        <f>G15-M15</f>
+        <v>69</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="R15" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="S15" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2109</v>
+      </c>
+      <c r="D16" s="25">
+        <v>49</v>
+      </c>
+      <c r="E16" s="84">
+        <v>2</v>
+      </c>
+      <c r="F16" s="22">
+        <v>5</v>
+      </c>
+      <c r="G16" s="25">
+        <v>120</v>
+      </c>
+      <c r="H16" s="87">
+        <v>130</v>
+      </c>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="22">
+        <v>52</v>
+      </c>
+      <c r="N16" s="41">
+        <f>M16/G16</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="O16" s="69">
+        <f>H16-M16</f>
+        <v>78</v>
+      </c>
+      <c r="P16" s="19">
+        <f>G16-M16</f>
+        <v>68</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="R16" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="S16" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="10">
+        <v>664</v>
+      </c>
+      <c r="D17" s="25">
+        <v>57</v>
+      </c>
+      <c r="E17" s="84">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>7</v>
+      </c>
+      <c r="G17" s="25">
+        <v>134</v>
+      </c>
+      <c r="H17" s="87">
+        <v>144</v>
+      </c>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="10">
+        <v>54</v>
+      </c>
+      <c r="N17" s="41">
+        <f>M13/G17</f>
+        <v>0.38059701492537312</v>
+      </c>
+      <c r="O17" s="69">
+        <f>H13-M13</f>
+        <v>79</v>
+      </c>
+      <c r="P17" s="19">
+        <f>G17-M13</f>
+        <v>83</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="R17" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="S17" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="63"/>
+      <c r="D18" s="24">
+        <v>40</v>
+      </c>
+      <c r="E18" s="84">
+        <v>3</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="24">
+        <v>120</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="69">
+        <f>H18-M18</f>
         <v>0</v>
       </c>
-      <c r="K8" s="75">
-        <f t="shared" si="2"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="10">
+        <v>151</v>
+      </c>
+      <c r="D19" s="24">
+        <v>46</v>
+      </c>
+      <c r="E19" s="84">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>5</v>
+      </c>
+      <c r="G19" s="24">
+        <v>120</v>
+      </c>
+      <c r="H19" s="52">
+        <v>120</v>
+      </c>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="22">
+        <v>44</v>
+      </c>
+      <c r="N19" s="41">
+        <f>M19/G19</f>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="O19" s="69">
+        <f>H19-M19</f>
+        <v>76</v>
+      </c>
+      <c r="P19" s="19">
+        <f>G19-M19</f>
+        <v>76</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="R19" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="S19" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="10">
+        <v>333</v>
+      </c>
+      <c r="D20" s="25">
+        <v>46</v>
+      </c>
+      <c r="E20" s="22">
         <v>0</v>
       </c>
-      <c r="L8" s="22">
+      <c r="F20" s="22">
+        <v>1</v>
+      </c>
+      <c r="G20" s="25">
+        <v>120</v>
+      </c>
+      <c r="H20" s="87">
+        <v>130</v>
+      </c>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="22">
+        <v>48</v>
+      </c>
+      <c r="N20" s="41">
+        <f>M20/G20</f>
+        <v>0.4</v>
+      </c>
+      <c r="O20" s="69">
+        <f>H20-M20</f>
+        <v>82</v>
+      </c>
+      <c r="P20" s="19">
+        <f>G20-M20</f>
+        <v>72</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="R20" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="S20" s="67"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
         <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="M8" s="28">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="O8" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
-        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="10">
+        <v>100</v>
+      </c>
+      <c r="D21" s="25">
+        <v>46</v>
+      </c>
+      <c r="E21" s="84">
+        <v>2</v>
+      </c>
+      <c r="F21" s="22">
         <v>5</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="68">
-        <v>57</v>
-      </c>
-      <c r="D9" s="60">
-        <v>37</v>
-      </c>
-      <c r="E9" s="92">
-        <v>2</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="60">
-        <v>120</v>
-      </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="116">
+      <c r="G21" s="25">
+        <v>120</v>
+      </c>
+      <c r="H21" s="52">
+        <v>120</v>
+      </c>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="22">
+        <v>51</v>
+      </c>
+      <c r="N21" s="41">
+        <f>M21/G21</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="O21" s="69">
+        <f>H21-M21</f>
+        <v>69</v>
+      </c>
+      <c r="P21" s="19">
+        <f>G21-M21</f>
+        <v>69</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="R21" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="S21" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="11">
-        <v>898</v>
-      </c>
-      <c r="D10" s="28">
-        <v>39</v>
-      </c>
-      <c r="E10" s="92">
-        <v>2</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="28">
-        <v>120</v>
-      </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="62">
+        <v>17</v>
+      </c>
+      <c r="D22" s="118">
+        <v>50</v>
+      </c>
+      <c r="E22" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55">
+        <v>120</v>
+      </c>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M10" s="28">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1718</v>
-      </c>
-      <c r="D11" s="28">
-        <v>39</v>
-      </c>
-      <c r="E11" s="25">
-        <v>0</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="28">
-        <v>120</v>
-      </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="22">
+        <v>19</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="62">
+        <v>21</v>
+      </c>
+      <c r="D23" s="118">
+        <v>50</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55">
+        <v>120</v>
+      </c>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M11" s="28">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" s="73"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="25">
-        <v>97</v>
-      </c>
-      <c r="D12" s="39">
-        <v>41</v>
-      </c>
-      <c r="E12" s="86">
-        <v>6</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="21">
-        <v>120</v>
-      </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="22">
+        <v>20</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="62">
+        <v>16</v>
+      </c>
+      <c r="D24" s="118">
+        <v>50</v>
+      </c>
+      <c r="E24" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55">
+        <v>120</v>
+      </c>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M12" s="28">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="O12" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="11">
-        <v>765</v>
-      </c>
-      <c r="D13" s="28">
-        <v>46</v>
-      </c>
-      <c r="E13" s="25">
-        <v>0</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="28">
-        <v>120</v>
-      </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="22">
+        <v>21</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="62">
+        <v>71</v>
+      </c>
+      <c r="D25" s="118">
+        <v>50</v>
+      </c>
+      <c r="E25" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55">
+        <v>120</v>
+      </c>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M13" s="28">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="73"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="11">
-        <v>2487</v>
-      </c>
-      <c r="D14" s="28">
-        <v>49</v>
-      </c>
-      <c r="E14" s="92">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="28">
-        <v>120</v>
-      </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="22">
+        <v>22</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="62">
+        <v>47</v>
+      </c>
+      <c r="D26" s="118">
+        <v>50</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55">
+        <v>120</v>
+      </c>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="121"/>
+      <c r="S26" s="114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M14" s="28">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="O14" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="11">
-        <v>6017</v>
-      </c>
-      <c r="D15" s="28">
-        <v>49</v>
-      </c>
-      <c r="E15" s="92">
-        <v>2</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="28">
-        <v>120</v>
-      </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="22">
+        <v>23</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="62">
+        <v>27</v>
+      </c>
+      <c r="D27" s="118">
+        <v>50</v>
+      </c>
+      <c r="E27" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55">
+        <v>120</v>
+      </c>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M15" s="28">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="O15" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="11">
-        <v>2109</v>
-      </c>
-      <c r="D16" s="28">
-        <v>49</v>
-      </c>
-      <c r="E16" s="92">
-        <v>2</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="28">
-        <v>120</v>
-      </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="22">
+        <v>24</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="62">
+        <v>16</v>
+      </c>
+      <c r="D28" s="118">
+        <v>50</v>
+      </c>
+      <c r="E28" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55">
+        <v>120</v>
+      </c>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M16" s="28">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="O16" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="11">
-        <v>664</v>
-      </c>
-      <c r="D17" s="28">
-        <v>57</v>
-      </c>
-      <c r="E17" s="92">
-        <v>1</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="28">
-        <v>134</v>
-      </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="22">
+        <v>25</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="62">
+        <v>67</v>
+      </c>
+      <c r="D29" s="118">
+        <v>50</v>
+      </c>
+      <c r="E29" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55">
+        <v>120</v>
+      </c>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
         <f t="shared" si="1"/>
-        <v>134</v>
-      </c>
-      <c r="M17" s="28">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="60">
-        <v>40</v>
-      </c>
-      <c r="E18" s="92">
-        <v>3</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="60">
-        <v>120</v>
-      </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="115">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="116">
+        <v>26</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="62">
+        <v>20</v>
+      </c>
+      <c r="D30" s="118">
+        <v>50</v>
+      </c>
+      <c r="E30" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55">
+        <v>120</v>
+      </c>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="121"/>
+      <c r="S30" s="114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="11">
-        <v>151</v>
-      </c>
-      <c r="D19" s="27">
-        <v>46</v>
-      </c>
-      <c r="E19" s="92">
-        <v>2</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="27">
-        <v>120</v>
-      </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="22">
+        <v>27</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="62">
+        <v>28</v>
+      </c>
+      <c r="D31" s="118">
+        <v>50</v>
+      </c>
+      <c r="E31" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55">
+        <v>120</v>
+      </c>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M19" s="27">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="O19" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="11">
-        <v>333</v>
-      </c>
-      <c r="D20" s="28">
-        <v>46</v>
-      </c>
-      <c r="E20" s="25">
-        <v>0</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="28">
-        <v>120</v>
-      </c>
-      <c r="H20" s="55"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="22">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M20" s="28">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="O20" s="73"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="11">
-        <v>100</v>
-      </c>
-      <c r="D21" s="28">
-        <v>46</v>
-      </c>
-      <c r="E21" s="92">
-        <v>2</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="28">
-        <v>120</v>
-      </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="22">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M21" s="28">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="O21" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="68">
-        <v>17</v>
-      </c>
-      <c r="D22" s="56">
+        <v>28</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="62">
+        <v>24</v>
+      </c>
+      <c r="D32" s="118">
         <v>50</v>
       </c>
-      <c r="E22" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58">
-        <v>120</v>
-      </c>
-      <c r="H22" s="64"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="68">
-        <v>21</v>
-      </c>
-      <c r="D23" s="56">
-        <v>50</v>
-      </c>
-      <c r="E23" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58">
-        <v>120</v>
-      </c>
-      <c r="H23" s="64"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="68">
-        <v>16</v>
-      </c>
-      <c r="D24" s="56">
-        <v>50</v>
-      </c>
-      <c r="E24" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58">
-        <v>120</v>
-      </c>
-      <c r="H24" s="64"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="68">
-        <v>71</v>
-      </c>
-      <c r="D25" s="56">
-        <v>50</v>
-      </c>
-      <c r="E25" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58">
-        <v>120</v>
-      </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="68">
-        <v>47</v>
-      </c>
-      <c r="D26" s="56">
-        <v>50</v>
-      </c>
-      <c r="E26" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58">
-        <v>120</v>
-      </c>
-      <c r="H26" s="64"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="68">
-        <v>27</v>
-      </c>
-      <c r="D27" s="56">
-        <v>50</v>
-      </c>
-      <c r="E27" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58">
-        <v>120</v>
-      </c>
-      <c r="H27" s="64"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="68">
-        <v>16</v>
-      </c>
-      <c r="D28" s="56">
-        <v>50</v>
-      </c>
-      <c r="E28" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58">
-        <v>120</v>
-      </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="68">
-        <v>67</v>
-      </c>
-      <c r="D29" s="56">
-        <v>50</v>
-      </c>
-      <c r="E29" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="58">
-        <v>120</v>
-      </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="68">
-        <v>20</v>
-      </c>
-      <c r="D30" s="56">
-        <v>50</v>
-      </c>
-      <c r="E30" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="58">
-        <v>120</v>
-      </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="68">
-        <v>28</v>
-      </c>
-      <c r="D31" s="56">
-        <v>50</v>
-      </c>
-      <c r="E31" s="93" t="s">
+      <c r="E32" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58">
-        <v>120</v>
-      </c>
-      <c r="H31" s="64"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="68">
-        <v>24</v>
-      </c>
-      <c r="D32" s="56">
-        <v>50</v>
-      </c>
-      <c r="E32" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="57"/>
-      <c r="G32" s="58">
-        <v>120</v>
-      </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
+      <c r="F32" s="54"/>
+      <c r="G32" s="55">
+        <v>120</v>
+      </c>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
         <f>A39+1</f>
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="22">
         <v>450</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="36">
         <v>50</v>
       </c>
-      <c r="E33" s="86">
+      <c r="E33" s="83">
         <v>1</v>
       </c>
-      <c r="F33" s="29">
-        <v>5</v>
-      </c>
-      <c r="G33" s="21">
-        <v>120</v>
-      </c>
-      <c r="H33" s="94"/>
-      <c r="J33" s="44">
-        <f>I39/G33</f>
+      <c r="F33" s="26">
+        <v>2</v>
+      </c>
+      <c r="G33" s="18">
+        <v>120</v>
+      </c>
+      <c r="H33" s="124">
+        <v>130</v>
+      </c>
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="117">
+        <v>50</v>
+      </c>
+      <c r="N33" s="41">
+        <f>M39/G33</f>
         <v>0.4</v>
       </c>
-      <c r="K33" s="75">
-        <f>H39-I39</f>
+      <c r="O33" s="69">
+        <f>H39-M39</f>
         <v>77</v>
       </c>
-      <c r="L33" s="22">
-        <f>G33-I39</f>
+      <c r="P33" s="19">
+        <f>G33-M39</f>
         <v>72</v>
       </c>
-      <c r="M33" s="28">
+      <c r="Q33" s="25">
         <v>0.84699999999999998</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="R33" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="O33" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+      <c r="S33" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
         <f>A33+1</f>
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="22">
         <v>1308</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="36">
         <v>50</v>
       </c>
-      <c r="E34" s="86">
+      <c r="E34" s="78">
         <v>2</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="21">
-        <v>120</v>
-      </c>
-      <c r="H34" s="55"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="44">
-        <f t="shared" ref="J34:J43" si="4">I34/G34</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="75">
-        <f t="shared" ref="K34:K42" si="5">H34-I34</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="22">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M34" s="28">
+      <c r="F34" s="26">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18">
+        <v>120</v>
+      </c>
+      <c r="H34" s="87">
+        <v>130</v>
+      </c>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="22">
+        <v>47</v>
+      </c>
+      <c r="N34" s="41">
+        <f>M34/G34</f>
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="O34" s="69">
+        <f>H34-M34</f>
+        <v>83</v>
+      </c>
+      <c r="P34" s="19">
+        <f>G34-M34</f>
+        <v>73</v>
+      </c>
+      <c r="Q34" s="25">
         <v>0.81100000000000005</v>
       </c>
-      <c r="N34" s="13" t="s">
+      <c r="R34" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="O34" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="27">
+      <c r="S34" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
         <f>A32+1</f>
         <v>29</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="22">
         <v>336</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="36">
         <v>52</v>
       </c>
-      <c r="E35" s="86">
+      <c r="E35" s="78">
         <v>2</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="21">
+      <c r="F35" s="26">
+        <v>4</v>
+      </c>
+      <c r="G35" s="18">
         <v>124</v>
       </c>
-      <c r="H35" s="55"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="75">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="22">
-        <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-      <c r="M35" s="27">
+      <c r="H35" s="87">
+        <v>134</v>
+      </c>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="22">
+        <v>55</v>
+      </c>
+      <c r="N35" s="41">
+        <f>M35/G35</f>
+        <v>0.44354838709677419</v>
+      </c>
+      <c r="O35" s="69">
+        <f>H35-M35</f>
+        <v>79</v>
+      </c>
+      <c r="P35" s="19">
+        <f>G35-M35</f>
+        <v>69</v>
+      </c>
+      <c r="Q35" s="24">
         <v>0.87</v>
       </c>
-      <c r="N35" s="13" t="s">
+      <c r="R35" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="O35" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="27">
+      <c r="S35" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24">
         <f>A34+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="22">
         <v>350</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="36">
         <v>53</v>
       </c>
-      <c r="E36" s="86">
+      <c r="E36" s="78">
         <v>13</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="21">
+      <c r="F36" s="26">
+        <v>3</v>
+      </c>
+      <c r="G36" s="18">
         <v>126</v>
       </c>
-      <c r="H36" s="55"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="75">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="22">
-        <f t="shared" si="1"/>
+      <c r="H36" s="52">
         <v>126</v>
       </c>
-      <c r="M36" s="28">
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="22">
+        <v>43</v>
+      </c>
+      <c r="N36" s="41">
+        <f>M36/G36</f>
+        <v>0.34126984126984128</v>
+      </c>
+      <c r="O36" s="69">
+        <f>H36-M36</f>
+        <v>83</v>
+      </c>
+      <c r="P36" s="19">
+        <f>G36-M36</f>
+        <v>83</v>
+      </c>
+      <c r="Q36" s="25">
         <v>0.83</v>
       </c>
-      <c r="N36" s="13" t="s">
+      <c r="R36" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="O36" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
+      <c r="S36" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24">
         <f>A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="22">
         <v>1110</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="36">
         <v>51</v>
       </c>
-      <c r="E37" s="86">
+      <c r="E37" s="78">
         <v>1</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="21">
+      <c r="F37" s="26">
+        <v>2</v>
+      </c>
+      <c r="G37" s="18">
         <v>122</v>
       </c>
-      <c r="H37" s="55"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="75">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="22">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="M37" s="28">
+      <c r="H37" s="125">
+        <v>140</v>
+      </c>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="22">
+        <v>58</v>
+      </c>
+      <c r="N37" s="41">
+        <f>M37/G37</f>
+        <v>0.47540983606557374</v>
+      </c>
+      <c r="O37" s="69">
+        <f>H37-M37</f>
+        <v>82</v>
+      </c>
+      <c r="P37" s="19">
+        <f>G37-M37</f>
+        <v>64</v>
+      </c>
+      <c r="Q37" s="25">
         <v>0.84799999999999998</v>
       </c>
-      <c r="N37" s="13" t="s">
+      <c r="R37" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="O37" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
+      <c r="S37" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="24">
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="22">
         <v>260</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D38" s="36">
         <v>55</v>
       </c>
-      <c r="E38" s="86">
+      <c r="E38" s="78">
         <v>1</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="26">
         <v>5</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="18">
         <v>130</v>
       </c>
-      <c r="H38" s="55">
+      <c r="H38" s="52">
         <v>130</v>
       </c>
-      <c r="I38" s="25">
-        <v>48</v>
-      </c>
-      <c r="J38" s="44">
-        <f t="shared" si="4"/>
-        <v>0.36923076923076925</v>
-      </c>
-      <c r="K38" s="75">
-        <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="L38" s="22">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="M38" s="28">
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="22">
+        <v>47</v>
+      </c>
+      <c r="N38" s="41">
+        <f>M38/G38</f>
+        <v>0.36153846153846153</v>
+      </c>
+      <c r="O38" s="69">
+        <f>H38-M38</f>
+        <v>83</v>
+      </c>
+      <c r="P38" s="19">
+        <f>G38-M38</f>
+        <v>83</v>
+      </c>
+      <c r="Q38" s="25">
         <v>0.84299999999999997</v>
       </c>
-      <c r="N38" s="13" t="s">
+      <c r="R38" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="O38" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
+      <c r="S38" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24">
         <f>A40+1</f>
         <v>31</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="22">
         <v>276</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="36">
         <v>49</v>
       </c>
-      <c r="E39" s="86">
+      <c r="E39" s="78">
         <v>8</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="21">
+      <c r="F39" s="26">
+        <v>5</v>
+      </c>
+      <c r="G39" s="18">
         <v>125</v>
       </c>
-      <c r="H39" s="55">
+      <c r="H39" s="52">
         <v>125</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="8">
         <v>48</v>
       </c>
-      <c r="J39" s="44">
-        <f t="shared" si="4"/>
+      <c r="N39" s="41">
+        <f>M39/G39</f>
         <v>0.38400000000000001</v>
       </c>
-      <c r="K39" s="75">
-        <f t="shared" si="5"/>
+      <c r="O39" s="69">
+        <f>H39-M39</f>
         <v>77</v>
       </c>
-      <c r="L39" s="22">
-        <f t="shared" si="1"/>
+      <c r="P39" s="19">
+        <f>G39-M39</f>
         <v>77</v>
       </c>
-      <c r="M39" s="28">
+      <c r="Q39" s="25">
         <v>0.80700000000000005</v>
       </c>
-      <c r="N39" s="13" t="s">
+      <c r="R39" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="O39" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="27">
+      <c r="S39" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24">
         <f>A35+1</f>
         <v>30</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="22">
         <v>246</v>
       </c>
-      <c r="D40" s="39">
+      <c r="D40" s="36">
         <v>48</v>
       </c>
-      <c r="E40" s="86">
+      <c r="E40" s="78">
         <v>1</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="26">
         <v>2</v>
       </c>
-      <c r="G40" s="21">
-        <v>120</v>
-      </c>
-      <c r="H40" s="117">
+      <c r="G40" s="18">
+        <v>120</v>
+      </c>
+      <c r="H40" s="87">
         <v>130</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="8">
         <v>53</v>
       </c>
-      <c r="J40" s="44">
-        <f t="shared" si="4"/>
+      <c r="N40" s="41">
+        <f>M40/G40</f>
         <v>0.44166666666666665</v>
       </c>
-      <c r="K40" s="75">
-        <f t="shared" si="5"/>
+      <c r="O40" s="69">
+        <f>H40-M40</f>
         <v>77</v>
       </c>
-      <c r="L40" s="22">
-        <f t="shared" si="1"/>
+      <c r="P40" s="19">
+        <f>G40-M40</f>
         <v>67</v>
       </c>
-      <c r="M40" s="27">
+      <c r="Q40" s="24">
         <v>0.84199999999999997</v>
       </c>
-      <c r="N40" s="13" t="s">
+      <c r="R40" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="O40" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="27">
+      <c r="S40" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24">
         <f>A38+1</f>
         <v>37</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>21631</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="36">
         <v>51</v>
       </c>
-      <c r="E41" s="86">
+      <c r="E41" s="78">
         <v>7</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="26">
         <v>3</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="18">
         <v>122</v>
       </c>
-      <c r="H41" s="55">
+      <c r="H41" s="52">
         <v>122</v>
       </c>
-      <c r="I41" s="25">
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="22">
         <v>39</v>
       </c>
-      <c r="J41" s="44">
-        <f t="shared" si="4"/>
+      <c r="N41" s="41">
+        <f>M41/G41</f>
         <v>0.31967213114754101</v>
       </c>
-      <c r="K41" s="75">
-        <f t="shared" si="5"/>
+      <c r="O41" s="69">
+        <f>H41-M41</f>
         <v>83</v>
       </c>
-      <c r="L41" s="22">
+      <c r="P41" s="19">
+        <f>G41-M41</f>
+        <v>83</v>
+      </c>
+      <c r="Q41" s="24">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="R41" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="S41" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="24">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="M41" s="27">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="N41" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="O41" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="27">
-        <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>12980</v>
       </c>
-      <c r="D42" s="39">
+      <c r="D42" s="36">
         <v>45</v>
       </c>
-      <c r="E42" s="86">
+      <c r="E42" s="78">
         <v>1</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="21">
+      <c r="F42" s="26">
+        <v>5</v>
+      </c>
+      <c r="G42" s="18">
         <v>122</v>
       </c>
-      <c r="H42" s="55"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="75">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="22">
+      <c r="H42" s="52">
+        <v>122</v>
+      </c>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="22">
+        <v>47</v>
+      </c>
+      <c r="N42" s="41">
+        <f>M42/G42</f>
+        <v>0.38524590163934425</v>
+      </c>
+      <c r="O42" s="69">
+        <f>H42-M42</f>
+        <v>75</v>
+      </c>
+      <c r="P42" s="19">
+        <f>G42-M42</f>
+        <v>75</v>
+      </c>
+      <c r="Q42" s="24">
+        <v>0.84</v>
+      </c>
+      <c r="R42" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="S42" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="46">
         <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="M42" s="27">
-        <v>0.84</v>
-      </c>
-      <c r="N42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="28">
+        <v>4336</v>
+      </c>
+      <c r="D43" s="37">
+        <v>52</v>
+      </c>
+      <c r="E43" s="80">
+        <v>2</v>
+      </c>
+      <c r="F43" s="39">
+        <v>5</v>
+      </c>
+      <c r="G43" s="20">
+        <v>124</v>
+      </c>
+      <c r="H43" s="71">
+        <v>124</v>
+      </c>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="27">
+        <v>45</v>
+      </c>
+      <c r="N43" s="42">
+        <f>M43/G43</f>
+        <v>0.36290322580645162</v>
+      </c>
+      <c r="O43" s="70">
+        <f>H43-M43</f>
+        <v>79</v>
+      </c>
+      <c r="P43" s="21">
+        <f>G43-M43</f>
+        <v>79</v>
+      </c>
+      <c r="Q43" s="46">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="R43" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="O42" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="49">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="31">
-        <v>4336</v>
-      </c>
-      <c r="D43" s="40">
-        <v>52</v>
-      </c>
-      <c r="E43" s="88">
-        <v>2</v>
-      </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="23">
-        <v>124</v>
-      </c>
-      <c r="H43" s="77"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="76">
-        <f t="shared" ref="K43" si="6">H43-I43</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="24">
-        <f t="shared" ref="L43" si="7">G43-I43</f>
-        <v>124</v>
-      </c>
-      <c r="M43" s="49">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="N43" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="O43" s="87" t="s">
+      <c r="S43" s="79" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A1:S1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G3:P3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Diagnostico_EB/Propuestas_Formatos/Propuesta_Diag_EB_AdriDaf.xlsx
+++ b/Diagnostico_EB/Propuestas_Formatos/Propuesta_Diag_EB_AdriDaf.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="9720" activeTab="1"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Promoción" sheetId="4" r:id="rId2"/>
     <sheet name="Notas" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -412,7 +412,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1023,6 +1023,66 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1082,66 +1142,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1525,7 +1525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1560,72 +1560,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="103" t="s">
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="94" t="s">
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="96"/>
+      <c r="L3" s="116"/>
       <c r="M3" s="65" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="102"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="34" t="s">
         <v>96</v>
       </c>
@@ -2843,10 +2843,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="L12" sqref="L12"/>
+      <selection pane="topRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2868,96 +2868,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
       <c r="T1" s="50"/>
       <c r="U1" s="50"/>
       <c r="V1" s="50"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
       <c r="T2" s="51"/>
       <c r="U2" s="51"/>
       <c r="V2" s="51"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="103" t="s">
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="94" t="s">
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="96"/>
+      <c r="R3" s="116"/>
       <c r="S3" s="65" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="101"/>
+    <row r="4" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="121"/>
       <c r="D4" s="44" t="s">
         <v>96</v>
       </c>
@@ -3029,20 +3029,20 @@
       <c r="G5" s="16">
         <v>122</v>
       </c>
-      <c r="H5" s="116">
+      <c r="H5" s="96">
         <v>131</v>
       </c>
-      <c r="I5" s="126">
+      <c r="I5" s="106">
         <v>122</v>
       </c>
-      <c r="J5" s="126">
+      <c r="J5" s="106">
         <v>40</v>
       </c>
-      <c r="K5" s="126">
+      <c r="K5" s="106">
         <f>G5-J5</f>
         <v>82</v>
       </c>
-      <c r="L5" s="126">
+      <c r="L5" s="106">
         <f>K5-20</f>
         <v>62</v>
       </c>
@@ -3054,17 +3054,17 @@
         <v>0.40163934426229508</v>
       </c>
       <c r="O5" s="72">
-        <f>H5-M5</f>
+        <f t="shared" ref="O5:O16" si="0">H5-M5</f>
         <v>82</v>
       </c>
       <c r="P5" s="17">
-        <f>G5-M5</f>
+        <f t="shared" ref="P5:P16" si="1">G5-M5</f>
         <v>73</v>
       </c>
       <c r="Q5" s="61">
         <v>0.85899999999999999</v>
       </c>
-      <c r="R5" s="109" t="s">
+      <c r="R5" s="89" t="s">
         <v>107</v>
       </c>
       <c r="S5" s="79" t="s">
@@ -3097,19 +3097,19 @@
       <c r="H6" s="87">
         <v>142</v>
       </c>
-      <c r="I6" s="127">
+      <c r="I6" s="107">
         <v>122</v>
       </c>
-      <c r="J6" s="127">
+      <c r="J6" s="107">
         <f>60-20</f>
         <v>40</v>
       </c>
-      <c r="K6" s="127">
+      <c r="K6" s="107">
         <f>I6-J6</f>
         <v>82</v>
       </c>
-      <c r="L6" s="126">
-        <f t="shared" ref="L6:L8" si="0">K6-20</f>
+      <c r="L6" s="106">
+        <f t="shared" ref="L6:L8" si="2">K6-20</f>
         <v>62</v>
       </c>
       <c r="M6" s="22">
@@ -3120,17 +3120,17 @@
         <v>0.49180327868852458</v>
       </c>
       <c r="O6" s="69">
-        <f>H6-M6</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="P6" s="19">
-        <f>G6-M6</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="Q6" s="25">
         <v>0.84399999999999997</v>
       </c>
-      <c r="R6" s="109" t="s">
+      <c r="R6" s="89" t="s">
         <v>107</v>
       </c>
       <c r="S6" s="79" t="s">
@@ -3139,7 +3139,7 @@
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
-        <f t="shared" ref="A7:A43" si="1">A6+1</f>
+        <f t="shared" ref="A7:A43" si="3">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3163,18 +3163,18 @@
       <c r="H7" s="87">
         <v>132</v>
       </c>
-      <c r="I7" s="127">
+      <c r="I7" s="107">
         <v>122</v>
       </c>
       <c r="J7" s="87">
         <v>30</v>
       </c>
       <c r="K7" s="87">
-        <f t="shared" ref="K7:K8" si="2">I7-J7</f>
+        <f t="shared" ref="K7:K8" si="4">I7-J7</f>
         <v>92</v>
       </c>
-      <c r="L7" s="116">
-        <f t="shared" si="0"/>
+      <c r="L7" s="96">
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="M7" s="22">
@@ -3185,17 +3185,17 @@
         <v>0.32786885245901637</v>
       </c>
       <c r="O7" s="69">
-        <f>H7-M7</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="P7" s="19">
-        <f>G7-M7</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="Q7" s="25">
         <v>0.87</v>
       </c>
-      <c r="R7" s="109" t="s">
+      <c r="R7" s="89" t="s">
         <v>107</v>
       </c>
       <c r="S7" s="79" t="s">
@@ -3204,7 +3204,7 @@
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3231,11 +3231,11 @@
       <c r="I8" s="87"/>
       <c r="J8" s="87"/>
       <c r="K8" s="87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="116">
-        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
       <c r="M8" s="10">
@@ -3246,17 +3246,17 @@
         <v>0.42622950819672129</v>
       </c>
       <c r="O8" s="69">
-        <f>H8-M8</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="P8" s="19">
-        <f>G8-M8</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="Q8" s="25">
         <v>0.80700000000000005</v>
       </c>
-      <c r="R8" s="108" t="s">
+      <c r="R8" s="88" t="s">
         <v>108</v>
       </c>
       <c r="S8" s="79" t="s">
@@ -3265,7 +3265,7 @@
     </row>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B9" s="47" t="s">
@@ -3294,22 +3294,22 @@
       <c r="M9" s="33"/>
       <c r="N9" s="85"/>
       <c r="O9" s="69">
-        <f>H9-M9</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="P9" s="86">
-        <f>G9-M9</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="Q9" s="57"/>
-      <c r="R9" s="110"/>
+      <c r="R9" s="90"/>
       <c r="S9" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -3343,21 +3343,21 @@
         <v>45</v>
       </c>
       <c r="N10" s="41">
-        <f>M10/G10</f>
+        <f t="shared" ref="N10:N16" si="5">M10/G10</f>
         <v>0.375</v>
       </c>
       <c r="O10" s="69">
-        <f>H10-M10</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="P10" s="19">
-        <f>G10-M10</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="Q10" s="25">
         <v>0.78600000000000003</v>
       </c>
-      <c r="R10" s="111" t="s">
+      <c r="R10" s="91" t="s">
         <v>108</v>
       </c>
       <c r="S10" s="79" t="s">
@@ -3366,7 +3366,7 @@
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -3398,28 +3398,28 @@
         <v>45</v>
       </c>
       <c r="N11" s="41">
-        <f>M11/G11</f>
+        <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
       <c r="O11" s="69">
-        <f>H11-M11</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="P11" s="19">
-        <f>G11-M11</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="Q11" s="25">
         <v>0.83299999999999996</v>
       </c>
-      <c r="R11" s="111" t="s">
+      <c r="R11" s="91" t="s">
         <v>108</v>
       </c>
       <c r="S11" s="67"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -3451,21 +3451,21 @@
         <v>55</v>
       </c>
       <c r="N12" s="41">
-        <f>M12/G12</f>
+        <f t="shared" si="5"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="O12" s="69">
-        <f>H12-M12</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="P12" s="19">
-        <f>G12-M12</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="Q12" s="25">
         <v>0.84399999999999997</v>
       </c>
-      <c r="R12" s="112" t="s">
+      <c r="R12" s="92" t="s">
         <v>109</v>
       </c>
       <c r="S12" s="79" t="s">
@@ -3474,7 +3474,7 @@
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -3506,28 +3506,28 @@
         <v>51</v>
       </c>
       <c r="N13" s="41">
-        <f>M13/G13</f>
+        <f t="shared" si="5"/>
         <v>0.42499999999999999</v>
       </c>
       <c r="O13" s="69">
-        <f>H13-M13</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="P13" s="19">
-        <f>G13-M13</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="Q13" s="25">
         <v>0.82799999999999996</v>
       </c>
-      <c r="R13" s="111" t="s">
+      <c r="R13" s="91" t="s">
         <v>108</v>
       </c>
       <c r="S13" s="67"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -3559,21 +3559,21 @@
         <v>48</v>
       </c>
       <c r="N14" s="41">
-        <f>M14/G14</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="O14" s="69">
-        <f>H14-M14</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="P14" s="19">
-        <f>G14-M14</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="Q14" s="25">
         <v>0.83499999999999996</v>
       </c>
-      <c r="R14" s="111" t="s">
+      <c r="R14" s="91" t="s">
         <v>108</v>
       </c>
       <c r="S14" s="79" t="s">
@@ -3582,7 +3582,7 @@
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -3614,21 +3614,21 @@
         <v>51</v>
       </c>
       <c r="N15" s="41">
-        <f>M15/G15</f>
+        <f t="shared" si="5"/>
         <v>0.42499999999999999</v>
       </c>
       <c r="O15" s="69">
-        <f>H15-M15</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="P15" s="19">
-        <f>G15-M15</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="Q15" s="25">
         <v>0.85499999999999998</v>
       </c>
-      <c r="R15" s="113" t="s">
+      <c r="R15" s="93" t="s">
         <v>99</v>
       </c>
       <c r="S15" s="79" t="s">
@@ -3637,7 +3637,7 @@
     </row>
     <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -3669,21 +3669,21 @@
         <v>52</v>
       </c>
       <c r="N16" s="41">
-        <f>M16/G16</f>
+        <f t="shared" si="5"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="O16" s="69">
-        <f>H16-M16</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="P16" s="19">
-        <f>G16-M16</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="Q16" s="25">
         <v>0.84099999999999997</v>
       </c>
-      <c r="R16" s="108" t="s">
+      <c r="R16" s="88" t="s">
         <v>108</v>
       </c>
       <c r="S16" s="79" t="s">
@@ -3692,7 +3692,7 @@
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -3738,7 +3738,7 @@
       <c r="Q17" s="25">
         <v>0.83599999999999997</v>
       </c>
-      <c r="R17" s="111" t="s">
+      <c r="R17" s="91" t="s">
         <v>108</v>
       </c>
       <c r="S17" s="79" t="s">
@@ -3747,7 +3747,7 @@
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B18" s="47" t="s">
@@ -3777,14 +3777,14 @@
       </c>
       <c r="P18" s="86"/>
       <c r="Q18" s="57"/>
-      <c r="R18" s="110"/>
+      <c r="R18" s="90"/>
       <c r="S18" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -3830,7 +3830,7 @@
       <c r="Q19" s="24">
         <v>0.83299999999999996</v>
       </c>
-      <c r="R19" s="112" t="s">
+      <c r="R19" s="92" t="s">
         <v>109</v>
       </c>
       <c r="S19" s="79" t="s">
@@ -3839,7 +3839,7 @@
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -3885,14 +3885,14 @@
       <c r="Q20" s="25">
         <v>0.84699999999999998</v>
       </c>
-      <c r="R20" s="111" t="s">
+      <c r="R20" s="91" t="s">
         <v>108</v>
       </c>
       <c r="S20" s="67"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -3938,7 +3938,7 @@
       <c r="Q21" s="25">
         <v>0.81799999999999995</v>
       </c>
-      <c r="R21" s="115" t="s">
+      <c r="R21" s="95" t="s">
         <v>109</v>
       </c>
       <c r="S21" s="79" t="s">
@@ -3947,7 +3947,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B22" s="47" t="s">
@@ -3956,7 +3956,7 @@
       <c r="C22" s="62">
         <v>17</v>
       </c>
-      <c r="D22" s="118">
+      <c r="D22" s="98">
         <v>50</v>
       </c>
       <c r="E22" s="83" t="s">
@@ -3975,15 +3975,15 @@
       <c r="N22" s="56"/>
       <c r="O22" s="68"/>
       <c r="P22" s="60"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="114" t="s">
+      <c r="Q22" s="99"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="94" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B23" s="47" t="s">
@@ -3992,7 +3992,7 @@
       <c r="C23" s="62">
         <v>21</v>
       </c>
-      <c r="D23" s="118">
+      <c r="D23" s="98">
         <v>50</v>
       </c>
       <c r="E23" s="83" t="s">
@@ -4012,14 +4012,14 @@
       <c r="O23" s="68"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="57"/>
-      <c r="R23" s="121"/>
-      <c r="S23" s="114" t="s">
+      <c r="R23" s="101"/>
+      <c r="S23" s="94" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B24" s="47" t="s">
@@ -4028,7 +4028,7 @@
       <c r="C24" s="62">
         <v>16</v>
       </c>
-      <c r="D24" s="118">
+      <c r="D24" s="98">
         <v>50</v>
       </c>
       <c r="E24" s="83" t="s">
@@ -4048,14 +4048,14 @@
       <c r="O24" s="68"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="57"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="114" t="s">
+      <c r="R24" s="101"/>
+      <c r="S24" s="94" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B25" s="47" t="s">
@@ -4064,7 +4064,7 @@
       <c r="C25" s="62">
         <v>71</v>
       </c>
-      <c r="D25" s="118">
+      <c r="D25" s="98">
         <v>50</v>
       </c>
       <c r="E25" s="83" t="s">
@@ -4084,14 +4084,14 @@
       <c r="O25" s="68"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="57"/>
-      <c r="R25" s="121"/>
-      <c r="S25" s="114" t="s">
+      <c r="R25" s="101"/>
+      <c r="S25" s="94" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B26" s="47" t="s">
@@ -4100,7 +4100,7 @@
       <c r="C26" s="62">
         <v>47</v>
       </c>
-      <c r="D26" s="118">
+      <c r="D26" s="98">
         <v>50</v>
       </c>
       <c r="E26" s="83" t="s">
@@ -4120,14 +4120,14 @@
       <c r="O26" s="68"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="57"/>
-      <c r="R26" s="121"/>
-      <c r="S26" s="114" t="s">
+      <c r="R26" s="101"/>
+      <c r="S26" s="94" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -4136,7 +4136,7 @@
       <c r="C27" s="62">
         <v>27</v>
       </c>
-      <c r="D27" s="118">
+      <c r="D27" s="98">
         <v>50</v>
       </c>
       <c r="E27" s="83" t="s">
@@ -4156,14 +4156,14 @@
       <c r="O27" s="68"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="57"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="114" t="s">
+      <c r="R27" s="101"/>
+      <c r="S27" s="94" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B28" s="47" t="s">
@@ -4172,7 +4172,7 @@
       <c r="C28" s="62">
         <v>16</v>
       </c>
-      <c r="D28" s="118">
+      <c r="D28" s="98">
         <v>50</v>
       </c>
       <c r="E28" s="83" t="s">
@@ -4192,14 +4192,14 @@
       <c r="O28" s="68"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="57"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="114" t="s">
+      <c r="R28" s="101"/>
+      <c r="S28" s="94" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B29" s="47" t="s">
@@ -4208,7 +4208,7 @@
       <c r="C29" s="62">
         <v>67</v>
       </c>
-      <c r="D29" s="118">
+      <c r="D29" s="98">
         <v>50</v>
       </c>
       <c r="E29" s="83" t="s">
@@ -4228,14 +4228,14 @@
       <c r="O29" s="68"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="57"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="114" t="s">
+      <c r="R29" s="101"/>
+      <c r="S29" s="94" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -4244,7 +4244,7 @@
       <c r="C30" s="62">
         <v>20</v>
       </c>
-      <c r="D30" s="118">
+      <c r="D30" s="98">
         <v>50</v>
       </c>
       <c r="E30" s="83" t="s">
@@ -4264,14 +4264,14 @@
       <c r="O30" s="68"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="57"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="114" t="s">
+      <c r="R30" s="101"/>
+      <c r="S30" s="94" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B31" s="47" t="s">
@@ -4280,7 +4280,7 @@
       <c r="C31" s="62">
         <v>28</v>
       </c>
-      <c r="D31" s="118">
+      <c r="D31" s="98">
         <v>50</v>
       </c>
       <c r="E31" s="83" t="s">
@@ -4300,14 +4300,14 @@
       <c r="O31" s="68"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="57"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="114" t="s">
+      <c r="R31" s="101"/>
+      <c r="S31" s="94" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B32" s="47" t="s">
@@ -4316,7 +4316,7 @@
       <c r="C32" s="62">
         <v>24</v>
       </c>
-      <c r="D32" s="118">
+      <c r="D32" s="98">
         <v>50</v>
       </c>
       <c r="E32" s="83" t="s">
@@ -4335,9 +4335,9 @@
       <c r="N32" s="56"/>
       <c r="O32" s="68"/>
       <c r="P32" s="60"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="114" t="s">
+      <c r="Q32" s="102"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="94" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4364,14 +4364,14 @@
       <c r="G33" s="18">
         <v>120</v>
       </c>
-      <c r="H33" s="124">
+      <c r="H33" s="104">
         <v>130</v>
       </c>
-      <c r="I33" s="124"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="117">
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="97">
         <v>50</v>
       </c>
       <c r="N33" s="41">
@@ -4389,7 +4389,7 @@
       <c r="Q33" s="25">
         <v>0.84699999999999998</v>
       </c>
-      <c r="R33" s="108" t="s">
+      <c r="R33" s="88" t="s">
         <v>108</v>
       </c>
       <c r="S33" s="79" t="s">
@@ -4430,21 +4430,21 @@
         <v>47</v>
       </c>
       <c r="N34" s="41">
-        <f>M34/G34</f>
+        <f t="shared" ref="N34:N43" si="6">M34/G34</f>
         <v>0.39166666666666666</v>
       </c>
       <c r="O34" s="69">
-        <f>H34-M34</f>
+        <f t="shared" ref="O34:O43" si="7">H34-M34</f>
         <v>83</v>
       </c>
       <c r="P34" s="19">
-        <f>G34-M34</f>
+        <f t="shared" ref="P34:P43" si="8">G34-M34</f>
         <v>73</v>
       </c>
       <c r="Q34" s="25">
         <v>0.81100000000000005</v>
       </c>
-      <c r="R34" s="111" t="s">
+      <c r="R34" s="91" t="s">
         <v>108</v>
       </c>
       <c r="S34" s="79" t="s">
@@ -4485,21 +4485,21 @@
         <v>55</v>
       </c>
       <c r="N35" s="41">
-        <f>M35/G35</f>
+        <f t="shared" si="6"/>
         <v>0.44354838709677419</v>
       </c>
       <c r="O35" s="69">
-        <f>H35-M35</f>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="P35" s="19">
-        <f>G35-M35</f>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="Q35" s="24">
         <v>0.87</v>
       </c>
-      <c r="R35" s="113" t="s">
+      <c r="R35" s="93" t="s">
         <v>99</v>
       </c>
       <c r="S35" s="79" t="s">
@@ -4540,21 +4540,21 @@
         <v>43</v>
       </c>
       <c r="N36" s="41">
-        <f>M36/G36</f>
+        <f t="shared" si="6"/>
         <v>0.34126984126984128</v>
       </c>
       <c r="O36" s="69">
-        <f>H36-M36</f>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="P36" s="19">
-        <f>G36-M36</f>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="Q36" s="25">
         <v>0.83</v>
       </c>
-      <c r="R36" s="111" t="s">
+      <c r="R36" s="91" t="s">
         <v>108</v>
       </c>
       <c r="S36" s="79" t="s">
@@ -4584,32 +4584,32 @@
       <c r="G37" s="18">
         <v>122</v>
       </c>
-      <c r="H37" s="125">
+      <c r="H37" s="105">
         <v>140</v>
       </c>
-      <c r="I37" s="125"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="125"/>
-      <c r="L37" s="125"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
       <c r="M37" s="22">
         <v>58</v>
       </c>
       <c r="N37" s="41">
-        <f>M37/G37</f>
+        <f t="shared" si="6"/>
         <v>0.47540983606557374</v>
       </c>
       <c r="O37" s="69">
-        <f>H37-M37</f>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="P37" s="19">
-        <f>G37-M37</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="Q37" s="25">
         <v>0.84799999999999998</v>
       </c>
-      <c r="R37" s="113" t="s">
+      <c r="R37" s="93" t="s">
         <v>99</v>
       </c>
       <c r="S37" s="79" t="s">
@@ -4650,21 +4650,21 @@
         <v>47</v>
       </c>
       <c r="N38" s="41">
-        <f>M38/G38</f>
+        <f t="shared" si="6"/>
         <v>0.36153846153846153</v>
       </c>
       <c r="O38" s="69">
-        <f>H38-M38</f>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="P38" s="19">
-        <f>G38-M38</f>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="Q38" s="25">
         <v>0.84299999999999997</v>
       </c>
-      <c r="R38" s="111" t="s">
+      <c r="R38" s="91" t="s">
         <v>108</v>
       </c>
       <c r="S38" s="79" t="s">
@@ -4705,21 +4705,21 @@
         <v>48</v>
       </c>
       <c r="N39" s="41">
-        <f>M39/G39</f>
+        <f t="shared" si="6"/>
         <v>0.38400000000000001</v>
       </c>
       <c r="O39" s="69">
-        <f>H39-M39</f>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="P39" s="19">
-        <f>G39-M39</f>
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
       <c r="Q39" s="25">
         <v>0.80700000000000005</v>
       </c>
-      <c r="R39" s="111" t="s">
+      <c r="R39" s="91" t="s">
         <v>108</v>
       </c>
       <c r="S39" s="79" t="s">
@@ -4760,21 +4760,21 @@
         <v>53</v>
       </c>
       <c r="N40" s="41">
-        <f>M40/G40</f>
+        <f t="shared" si="6"/>
         <v>0.44166666666666665</v>
       </c>
       <c r="O40" s="69">
-        <f>H40-M40</f>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="P40" s="19">
-        <f>G40-M40</f>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="Q40" s="24">
         <v>0.84199999999999997</v>
       </c>
-      <c r="R40" s="111" t="s">
+      <c r="R40" s="91" t="s">
         <v>108</v>
       </c>
       <c r="S40" s="79" t="s">
@@ -4815,21 +4815,21 @@
         <v>39</v>
       </c>
       <c r="N41" s="41">
-        <f>M41/G41</f>
+        <f t="shared" si="6"/>
         <v>0.31967213114754101</v>
       </c>
       <c r="O41" s="69">
-        <f>H41-M41</f>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="P41" s="19">
-        <f>G41-M41</f>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="Q41" s="24">
         <v>0.82899999999999996</v>
       </c>
-      <c r="R41" s="108" t="s">
+      <c r="R41" s="88" t="s">
         <v>108</v>
       </c>
       <c r="S41" s="79" t="s">
@@ -4838,7 +4838,7 @@
     </row>
     <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -4870,21 +4870,21 @@
         <v>47</v>
       </c>
       <c r="N42" s="41">
-        <f>M42/G42</f>
+        <f t="shared" si="6"/>
         <v>0.38524590163934425</v>
       </c>
       <c r="O42" s="69">
-        <f>H42-M42</f>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="P42" s="19">
-        <f>G42-M42</f>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="Q42" s="24">
         <v>0.84</v>
       </c>
-      <c r="R42" s="113" t="s">
+      <c r="R42" s="93" t="s">
         <v>99</v>
       </c>
       <c r="S42" s="79" t="s">
@@ -4893,7 +4893,7 @@
     </row>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -4925,21 +4925,21 @@
         <v>45</v>
       </c>
       <c r="N43" s="42">
-        <f>M43/G43</f>
+        <f t="shared" si="6"/>
         <v>0.36290322580645162</v>
       </c>
       <c r="O43" s="70">
-        <f>H43-M43</f>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="P43" s="21">
-        <f>G43-M43</f>
+        <f t="shared" si="8"/>
         <v>79</v>
       </c>
       <c r="Q43" s="46">
         <v>0.84199999999999997</v>
       </c>
-      <c r="R43" s="113" t="s">
+      <c r="R43" s="93" t="s">
         <v>99</v>
       </c>
       <c r="S43" s="79" t="s">
